--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1743140.572622529</v>
+        <v>-1743795.545472653</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5396956.664121862</v>
+        <v>5396956.664121812</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058548</v>
+        <v>632041.4518058535</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14056712.25727406</v>
+        <v>14056712.25727407</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.568774505497856</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="E11" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>52.23065095335616</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.99659172979408</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>15.86247667484216</v>
       </c>
       <c r="U11" t="n">
-        <v>43.52776139290677</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>77.30827387397528</v>
       </c>
     </row>
     <row r="12">
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.357505973423248</v>
+        <v>8.357505973422878</v>
       </c>
       <c r="U12" t="n">
-        <v>30.60508741747135</v>
+        <v>30.60508741747098</v>
       </c>
       <c r="V12" t="n">
-        <v>34.02578013387188</v>
+        <v>34.02578013387151</v>
       </c>
       <c r="W12" t="n">
-        <v>60.08144279548122</v>
+        <v>60.08144279548085</v>
       </c>
       <c r="X12" t="n">
-        <v>10.68977365794024</v>
+        <v>10.68977365793987</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.76114535249525</v>
+        <v>16.76114535249488</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>28.85014794179622</v>
+        <v>28.85014794179585</v>
       </c>
       <c r="T13" t="n">
-        <v>17.14705869532296</v>
+        <v>17.1470586953226</v>
       </c>
       <c r="U13" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="V13" t="n">
-        <v>38.48587440291953</v>
+        <v>38.48587440291917</v>
       </c>
       <c r="W13" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="X13" t="n">
-        <v>15.29631462671216</v>
+        <v>15.29631462671179</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.51813203263805</v>
+        <v>10.51813203263768</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>77.30827387397679</v>
       </c>
-      <c r="G14" t="n">
-        <v>31.23405922356185</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5604432415487</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20.99659172979416</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>15.8624766748426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="W14" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>33.53268438665007</v>
       </c>
     </row>
     <row r="15">
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>8.357505973423333</v>
+        <v>8.357505973422878</v>
       </c>
       <c r="U15" t="n">
-        <v>30.60508741747144</v>
+        <v>30.60508741747098</v>
       </c>
       <c r="V15" t="n">
-        <v>34.02578013387196</v>
+        <v>34.02578013387151</v>
       </c>
       <c r="W15" t="n">
-        <v>60.08144279548131</v>
+        <v>60.08144279548085</v>
       </c>
       <c r="X15" t="n">
-        <v>10.68977365794032</v>
+        <v>10.68977365793987</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.76114535249533</v>
+        <v>16.76114535249488</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>28.85014794179631</v>
+        <v>28.85014794179585</v>
       </c>
       <c r="T16" t="n">
-        <v>17.14705869532305</v>
+        <v>17.1470586953226</v>
       </c>
       <c r="U16" t="n">
         <v>77.30827387397679</v>
       </c>
       <c r="V16" t="n">
-        <v>38.48587440291962</v>
+        <v>38.48587440291917</v>
       </c>
       <c r="W16" t="n">
         <v>77.30827387397679</v>
       </c>
       <c r="X16" t="n">
-        <v>15.29631462671225</v>
+        <v>15.29631462671179</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.51813203263814</v>
+        <v>10.51813203263768</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.38910359268365</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="18">
@@ -2081,7 +2081,7 @@
         <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
-        <v>12.30903355541193</v>
+        <v>12.30903355541224</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.38910359268395</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="21">
@@ -2330,7 +2330,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397663</v>
       </c>
       <c r="H23" t="n">
         <v>9.171107687222275</v>
@@ -2561,7 +2561,7 @@
         <v>112.6936857367097</v>
       </c>
       <c r="E26" t="n">
-        <v>146.4004381561186</v>
+        <v>146.4004381561185</v>
       </c>
       <c r="F26" t="n">
         <v>178.1207757344959</v>
@@ -2573,7 +2573,7 @@
         <v>121.9890976074715</v>
       </c>
       <c r="I26" t="n">
-        <v>16.10511011756185</v>
+        <v>16.10511011756182</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.541258605806847</v>
+        <v>2.541258605806819</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>25.07242826891954</v>
+        <v>25.07242826891951</v>
       </c>
       <c r="V26" t="n">
-        <v>95.80130970363442</v>
+        <v>95.80130970363439</v>
       </c>
       <c r="W26" t="n">
         <v>112.8179899202493</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>12.14975429348412</v>
+        <v>12.1497542934841</v>
       </c>
       <c r="V27" t="n">
-        <v>15.57044700988465</v>
+        <v>15.57044700988462</v>
       </c>
       <c r="W27" t="n">
-        <v>41.62610967149399</v>
+        <v>41.62610967149396</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39481481780899</v>
+        <v>10.39481481780896</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>63.57819337402499</v>
+        <v>63.57819337402496</v>
       </c>
       <c r="V28" t="n">
-        <v>20.0305412789323</v>
+        <v>20.03054127893228</v>
       </c>
       <c r="W28" t="n">
-        <v>65.23223318381773</v>
+        <v>65.2322331838177</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>149.0087664723158</v>
       </c>
       <c r="C32" t="n">
-        <v>125.1270234756613</v>
+        <v>125.1270234756612</v>
       </c>
       <c r="D32" t="n">
         <v>112.6936857367097</v>
@@ -3047,7 +3047,7 @@
         <v>121.9890976074716</v>
       </c>
       <c r="I32" t="n">
-        <v>16.10511011756191</v>
+        <v>16.10511011756188</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.541258605806904</v>
+        <v>2.541258605806888</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>25.07242826891959</v>
+        <v>25.07242826891957</v>
       </c>
       <c r="V32" t="n">
-        <v>95.80130970363447</v>
+        <v>95.80130970363444</v>
       </c>
       <c r="W32" t="n">
         <v>112.8179899202493</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>12.14975429348418</v>
+        <v>12.14975429348415</v>
       </c>
       <c r="V33" t="n">
-        <v>15.5704470098847</v>
+        <v>15.57044700988467</v>
       </c>
       <c r="W33" t="n">
-        <v>41.62610967149405</v>
+        <v>41.62610967149402</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>10.39481481780905</v>
+        <v>10.39481481780902</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.57819337402505</v>
+        <v>63.57819337402502</v>
       </c>
       <c r="V34" t="n">
-        <v>20.03054127893236</v>
+        <v>20.03054127893233</v>
       </c>
       <c r="W34" t="n">
-        <v>65.23223318381778</v>
+        <v>65.23223318381775</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.3493632112667</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C35" t="n">
-        <v>101.4676202146122</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D35" t="n">
-        <v>89.03428247566069</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E35" t="n">
-        <v>122.7410348950696</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F35" t="n">
-        <v>154.4613724734469</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G35" t="n">
-        <v>170.1048043184243</v>
+        <v>170.1048043184265</v>
       </c>
       <c r="H35" t="n">
-        <v>98.32969434642257</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.413025007870544</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V35" t="n">
-        <v>72.14190644258542</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W35" t="n">
-        <v>89.1585866592003</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X35" t="n">
-        <v>111.0448371281395</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.5476902518833</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>17.966706410445</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.918790112976</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.57282992276873</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.3493632112667</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C38" t="n">
-        <v>101.4676202146122</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D38" t="n">
-        <v>89.03428247566069</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E38" t="n">
-        <v>122.7410348950696</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F38" t="n">
-        <v>154.4613724734469</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G38" t="n">
-        <v>170.1048043184243</v>
+        <v>170.1048043184265</v>
       </c>
       <c r="H38" t="n">
-        <v>98.32969434642257</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.413025007870544</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V38" t="n">
-        <v>72.14190644258542</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W38" t="n">
-        <v>89.1585866592003</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X38" t="n">
-        <v>111.0448371281395</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.5476902518833</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>17.966706410445</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>39.918790112976</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.57282992276873</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>125.3493632112667</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C41" t="n">
-        <v>101.4676202146122</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D41" t="n">
-        <v>89.03428247566069</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E41" t="n">
-        <v>122.7410348950696</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F41" t="n">
-        <v>154.4613724734469</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G41" t="n">
-        <v>170.1048043184243</v>
+        <v>170.1048043184264</v>
       </c>
       <c r="H41" t="n">
-        <v>98.32969434642257</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.413025007870544</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V41" t="n">
-        <v>72.14190644258542</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W41" t="n">
-        <v>89.1585866592003</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X41" t="n">
-        <v>111.0448371281395</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y41" t="n">
-        <v>133.5476902518833</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>17.966706410445</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.918790112976</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>41.57282992276873</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>125.3493632112667</v>
+        <v>125.3493632112689</v>
       </c>
       <c r="C44" t="n">
-        <v>101.4676202146122</v>
+        <v>101.4676202146144</v>
       </c>
       <c r="D44" t="n">
-        <v>89.03428247566066</v>
+        <v>89.03428247566285</v>
       </c>
       <c r="E44" t="n">
-        <v>122.7410348950695</v>
+        <v>122.7410348950717</v>
       </c>
       <c r="F44" t="n">
-        <v>154.4613724734469</v>
+        <v>154.461372473449</v>
       </c>
       <c r="G44" t="n">
-        <v>170.1048043184243</v>
+        <v>170.1048043184265</v>
       </c>
       <c r="H44" t="n">
-        <v>98.32969434642254</v>
+        <v>98.32969434642473</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.413025007870516</v>
+        <v>1.413025007872704</v>
       </c>
       <c r="V44" t="n">
-        <v>72.14190644258539</v>
+        <v>72.14190644258758</v>
       </c>
       <c r="W44" t="n">
-        <v>89.15858665920027</v>
+        <v>89.15858665920246</v>
       </c>
       <c r="X44" t="n">
-        <v>111.0448371281395</v>
+        <v>111.0448371281417</v>
       </c>
       <c r="Y44" t="n">
-        <v>133.5476902518833</v>
+        <v>133.5476902518855</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>17.96670641044497</v>
+        <v>17.96670641044716</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.91879011297597</v>
+        <v>39.91879011297816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>41.5728299227687</v>
+        <v>41.57282992277089</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.87865017201376</v>
+        <v>215.1212262546723</v>
       </c>
       <c r="C11" t="n">
-        <v>84.27382743918764</v>
+        <v>215.1212262546723</v>
       </c>
       <c r="D11" t="n">
-        <v>84.27382743918764</v>
+        <v>137.0320607254044</v>
       </c>
       <c r="E11" t="n">
-        <v>6.184661909918143</v>
+        <v>137.0320607254044</v>
       </c>
       <c r="F11" t="n">
-        <v>6.184661909918143</v>
+        <v>84.27382743918599</v>
       </c>
       <c r="G11" t="n">
-        <v>6.184661909918143</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="H11" t="n">
-        <v>6.184661909918143</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="I11" t="n">
-        <v>6.184661909918143</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="J11" t="n">
-        <v>6.184661909918143</v>
+        <v>34.81512327514756</v>
       </c>
       <c r="K11" t="n">
-        <v>76.6776388460213</v>
+        <v>34.81512327514756</v>
       </c>
       <c r="L11" t="n">
-        <v>122.6941174736367</v>
+        <v>111.3503144103831</v>
       </c>
       <c r="M11" t="n">
-        <v>199.2293086088737</v>
+        <v>187.8855055456186</v>
       </c>
       <c r="N11" t="n">
-        <v>275.7644997441107</v>
+        <v>264.4206966808541</v>
       </c>
       <c r="O11" t="n">
-        <v>309.2330954959072</v>
+        <v>297.8892924326506</v>
       </c>
       <c r="P11" t="n">
-        <v>309.2330954959072</v>
+        <v>297.8892924326506</v>
       </c>
       <c r="Q11" t="n">
-        <v>309.2330954959072</v>
+        <v>297.8892924326506</v>
       </c>
       <c r="R11" t="n">
-        <v>309.2330954959072</v>
+        <v>309.2330954959011</v>
       </c>
       <c r="S11" t="n">
-        <v>288.0244169809636</v>
+        <v>309.2330954959011</v>
       </c>
       <c r="T11" t="n">
-        <v>288.0244169809636</v>
+        <v>293.2103917839403</v>
       </c>
       <c r="U11" t="n">
-        <v>244.0569812305527</v>
+        <v>293.2103917839403</v>
       </c>
       <c r="V11" t="n">
-        <v>165.9678157012833</v>
+        <v>293.2103917839403</v>
       </c>
       <c r="W11" t="n">
-        <v>87.87865017201376</v>
+        <v>293.2103917839403</v>
       </c>
       <c r="X11" t="n">
-        <v>87.87865017201376</v>
+        <v>293.2103917839403</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.87865017201376</v>
+        <v>215.1212262546723</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.184661909918143</v>
+        <v>6.184661909918023</v>
       </c>
       <c r="C12" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451119</v>
       </c>
       <c r="D12" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451119</v>
       </c>
       <c r="E12" t="n">
-        <v>40.63227516223153</v>
+        <v>25.09860127451119</v>
       </c>
       <c r="F12" t="n">
-        <v>40.63227516223153</v>
+        <v>25.09860127451119</v>
       </c>
       <c r="G12" t="n">
-        <v>40.63227516223153</v>
+        <v>25.09860127451119</v>
       </c>
       <c r="H12" t="n">
-        <v>40.63227516223153</v>
+        <v>25.09860127451119</v>
       </c>
       <c r="I12" t="n">
-        <v>40.63227516223153</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="J12" t="n">
-        <v>40.63227516223153</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="K12" t="n">
-        <v>40.63227516223153</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="L12" t="n">
-        <v>49.9586574486637</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="M12" t="n">
-        <v>49.9586574486637</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="N12" t="n">
-        <v>126.4938485839007</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="O12" t="n">
-        <v>126.4938485839007</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="P12" t="n">
-        <v>126.4938485839007</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.4938485839007</v>
+        <v>82.45311982726425</v>
       </c>
       <c r="R12" t="n">
-        <v>168.3268188095981</v>
+        <v>153.4891516703206</v>
       </c>
       <c r="S12" t="n">
-        <v>168.3268188095981</v>
+        <v>168.3268188095958</v>
       </c>
       <c r="T12" t="n">
-        <v>159.8848935839181</v>
+        <v>159.8848935839161</v>
       </c>
       <c r="U12" t="n">
-        <v>128.9706638693006</v>
+        <v>128.9706638692989</v>
       </c>
       <c r="V12" t="n">
-        <v>94.6011889866017</v>
+        <v>94.60118898660045</v>
       </c>
       <c r="W12" t="n">
-        <v>33.91286293056005</v>
+        <v>33.91286293055919</v>
       </c>
       <c r="X12" t="n">
-        <v>23.11511176092345</v>
+        <v>23.11511176092295</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.184661909918143</v>
+        <v>6.184661909918023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.184661909918143</v>
+        <v>34.90081982531504</v>
       </c>
       <c r="C13" t="n">
-        <v>6.184661909918143</v>
+        <v>34.90081982531504</v>
       </c>
       <c r="D13" t="n">
-        <v>6.184661909918143</v>
+        <v>34.90081982531504</v>
       </c>
       <c r="E13" t="n">
-        <v>6.184661909918143</v>
+        <v>34.90081982531504</v>
       </c>
       <c r="F13" t="n">
-        <v>6.184661909918143</v>
+        <v>34.90081982531504</v>
       </c>
       <c r="G13" t="n">
-        <v>6.184661909918143</v>
+        <v>34.90081982531504</v>
       </c>
       <c r="H13" t="n">
-        <v>13.70323916092761</v>
+        <v>34.90081982531504</v>
       </c>
       <c r="I13" t="n">
-        <v>13.70323916092761</v>
+        <v>76.19308087428828</v>
       </c>
       <c r="J13" t="n">
-        <v>13.70323916092761</v>
+        <v>76.19308087428828</v>
       </c>
       <c r="K13" t="n">
-        <v>83.18959445425932</v>
+        <v>81.10740436066149</v>
       </c>
       <c r="L13" t="n">
-        <v>151.387770965939</v>
+        <v>81.10740436066149</v>
       </c>
       <c r="M13" t="n">
-        <v>151.387770965939</v>
+        <v>81.10740436066149</v>
       </c>
       <c r="N13" t="n">
-        <v>151.387770965939</v>
+        <v>81.10740436066149</v>
       </c>
       <c r="O13" t="n">
-        <v>213.9631013882427</v>
+        <v>157.642595495897</v>
       </c>
       <c r="P13" t="n">
-        <v>273.774637109254</v>
+        <v>234.1777866311325</v>
       </c>
       <c r="Q13" t="n">
-        <v>273.774637109254</v>
+        <v>270.7034129648173</v>
       </c>
       <c r="R13" t="n">
-        <v>273.774637109254</v>
+        <v>273.774637109249</v>
       </c>
       <c r="S13" t="n">
-        <v>244.6330735316821</v>
+        <v>244.6330735316774</v>
       </c>
       <c r="T13" t="n">
-        <v>227.312812223275</v>
+        <v>227.3128122232708</v>
       </c>
       <c r="U13" t="n">
-        <v>149.2236466940056</v>
+        <v>149.2236466940028</v>
       </c>
       <c r="V13" t="n">
-        <v>110.3490260849959</v>
+        <v>110.3490260849935</v>
       </c>
       <c r="W13" t="n">
-        <v>32.25986055572644</v>
+        <v>32.25986055572557</v>
       </c>
       <c r="X13" t="n">
-        <v>16.80903770046163</v>
+        <v>16.80903770046114</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.184661909918143</v>
+        <v>6.184661909918023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>115.8233822104622</v>
+        <v>197.272531596284</v>
       </c>
       <c r="C14" t="n">
-        <v>115.8233822104622</v>
+        <v>197.272531596284</v>
       </c>
       <c r="D14" t="n">
-        <v>115.8233822104622</v>
+        <v>119.1833660670145</v>
       </c>
       <c r="E14" t="n">
-        <v>115.8233822104622</v>
+        <v>119.1833660670145</v>
       </c>
       <c r="F14" t="n">
-        <v>37.73421668119273</v>
+        <v>119.1833660670145</v>
       </c>
       <c r="G14" t="n">
-        <v>6.184661909918143</v>
+        <v>119.1833660670145</v>
       </c>
       <c r="H14" t="n">
-        <v>6.184661909918143</v>
+        <v>41.09420053774505</v>
       </c>
       <c r="I14" t="n">
         <v>6.184661909918143</v>
       </c>
       <c r="J14" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="K14" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="L14" t="n">
-        <v>52.2011405375335</v>
+        <v>128.7363316727705</v>
       </c>
       <c r="M14" t="n">
-        <v>53.02841093944392</v>
+        <v>158.1664334687003</v>
       </c>
       <c r="N14" t="n">
-        <v>127.5598818314137</v>
+        <v>232.6979043606701</v>
       </c>
       <c r="O14" t="n">
-        <v>204.0950729666507</v>
+        <v>232.6979043606701</v>
       </c>
       <c r="P14" t="n">
-        <v>221.35410129742</v>
+        <v>232.6979043606701</v>
       </c>
       <c r="Q14" t="n">
-        <v>297.889292432657</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="R14" t="n">
         <v>309.2330954959072</v>
       </c>
       <c r="S14" t="n">
-        <v>288.0244169809635</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="T14" t="n">
-        <v>272.0017132690012</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="U14" t="n">
-        <v>272.0017132690012</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="V14" t="n">
-        <v>272.0017132690012</v>
+        <v>231.1439299666376</v>
       </c>
       <c r="W14" t="n">
-        <v>193.9125477397317</v>
+        <v>231.1439299666376</v>
       </c>
       <c r="X14" t="n">
-        <v>115.8233822104622</v>
+        <v>231.1439299666376</v>
       </c>
       <c r="Y14" t="n">
-        <v>115.8233822104622</v>
+        <v>197.272531596284</v>
       </c>
     </row>
     <row r="15">
@@ -5334,70 +5334,70 @@
         <v>6.184661909918143</v>
       </c>
       <c r="C15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="D15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="E15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="F15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="G15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="H15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="I15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="J15" t="n">
-        <v>6.184661909918143</v>
+        <v>25.09860127451131</v>
       </c>
       <c r="K15" t="n">
-        <v>6.184661909918143</v>
+        <v>97.57346405969997</v>
       </c>
       <c r="L15" t="n">
-        <v>15.25643653912462</v>
+        <v>97.57346405969997</v>
       </c>
       <c r="M15" t="n">
-        <v>91.79162767436164</v>
+        <v>97.57346405969997</v>
       </c>
       <c r="N15" t="n">
-        <v>91.79162767436164</v>
+        <v>97.57346405969997</v>
       </c>
       <c r="O15" t="n">
-        <v>91.79162767436164</v>
+        <v>97.57346405969997</v>
       </c>
       <c r="P15" t="n">
-        <v>168.3268188095986</v>
+        <v>97.57346405969997</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.3268188095986</v>
+        <v>153.4891516703207</v>
       </c>
       <c r="R15" t="n">
-        <v>168.3268188095986</v>
+        <v>153.4891516703207</v>
       </c>
       <c r="S15" t="n">
-        <v>168.3268188095986</v>
+        <v>168.3268188095959</v>
       </c>
       <c r="T15" t="n">
-        <v>159.8848935839185</v>
+        <v>159.8848935839162</v>
       </c>
       <c r="U15" t="n">
-        <v>128.9706638693009</v>
+        <v>128.970663869299</v>
       </c>
       <c r="V15" t="n">
-        <v>94.60118898660195</v>
+        <v>94.60118898660056</v>
       </c>
       <c r="W15" t="n">
-        <v>33.91286293056022</v>
+        <v>33.9128629305593</v>
       </c>
       <c r="X15" t="n">
-        <v>23.11511176092353</v>
+        <v>23.11511176092307</v>
       </c>
       <c r="Y15" t="n">
         <v>6.184661909918143</v>
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.90081982531471</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="C16" t="n">
-        <v>34.90081982531471</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="D16" t="n">
-        <v>34.90081982531471</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="E16" t="n">
-        <v>99.19834939892695</v>
+        <v>6.184661909918143</v>
       </c>
       <c r="F16" t="n">
-        <v>99.19834939892695</v>
+        <v>69.2190564237456</v>
       </c>
       <c r="G16" t="n">
-        <v>99.19834939892695</v>
+        <v>69.2190564237456</v>
       </c>
       <c r="H16" t="n">
-        <v>99.19834939892695</v>
+        <v>69.2190564237456</v>
       </c>
       <c r="I16" t="n">
-        <v>99.19834939892695</v>
+        <v>69.2190564237456</v>
       </c>
       <c r="J16" t="n">
-        <v>99.19834939892695</v>
+        <v>133.0188811598084</v>
       </c>
       <c r="K16" t="n">
-        <v>99.19834939892695</v>
+        <v>202.5052364531405</v>
       </c>
       <c r="L16" t="n">
-        <v>99.19834939892695</v>
+        <v>270.7034129648205</v>
       </c>
       <c r="M16" t="n">
-        <v>163.9591991520508</v>
+        <v>270.7034129648205</v>
       </c>
       <c r="N16" t="n">
-        <v>240.4943902872878</v>
+        <v>270.7034129648205</v>
       </c>
       <c r="O16" t="n">
-        <v>240.4943902872878</v>
+        <v>270.7034129648205</v>
       </c>
       <c r="P16" t="n">
-        <v>270.7034129648232</v>
+        <v>270.7034129648205</v>
       </c>
       <c r="Q16" t="n">
-        <v>270.7034129648232</v>
+        <v>270.7034129648205</v>
       </c>
       <c r="R16" t="n">
-        <v>273.7746371092545</v>
+        <v>273.7746371092522</v>
       </c>
       <c r="S16" t="n">
-        <v>244.6330735316824</v>
+        <v>244.6330735316806</v>
       </c>
       <c r="T16" t="n">
-        <v>227.3128122232753</v>
+        <v>227.312812223274</v>
       </c>
       <c r="U16" t="n">
-        <v>149.2236466940058</v>
+        <v>149.2236466940045</v>
       </c>
       <c r="V16" t="n">
-        <v>110.3490260849961</v>
+        <v>110.3490260849952</v>
       </c>
       <c r="W16" t="n">
-        <v>32.25986055572661</v>
+        <v>32.25986055572569</v>
       </c>
       <c r="X16" t="n">
-        <v>16.80903770046172</v>
+        <v>16.80903770046125</v>
       </c>
       <c r="Y16" t="n">
         <v>6.184661909918143</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.7319534618775</v>
+        <v>205.7319534618783</v>
       </c>
       <c r="C17" t="n">
-        <v>193.2985862341886</v>
+        <v>193.2985862341894</v>
       </c>
       <c r="D17" t="n">
-        <v>193.4216473758929</v>
+        <v>193.4216473758935</v>
       </c>
       <c r="E17" t="n">
-        <v>159.4999824911764</v>
+        <v>159.4999824911771</v>
       </c>
       <c r="F17" t="n">
-        <v>93.53757257779591</v>
+        <v>93.53757257779665</v>
       </c>
       <c r="G17" t="n">
         <v>15.44840704852649</v>
@@ -5510,10 +5510,10 @@
         <v>6.184661909918143</v>
       </c>
       <c r="I17" t="n">
-        <v>6.184661909918143</v>
+        <v>62.78100867574734</v>
       </c>
       <c r="J17" t="n">
-        <v>6.184661909918143</v>
+        <v>62.78100867574734</v>
       </c>
       <c r="K17" t="n">
         <v>62.78100867574734</v>
@@ -5528,13 +5528,13 @@
         <v>62.78100867574734</v>
       </c>
       <c r="O17" t="n">
-        <v>139.3161998109844</v>
+        <v>62.78100867574734</v>
       </c>
       <c r="P17" t="n">
         <v>139.3161998109844</v>
       </c>
       <c r="Q17" t="n">
-        <v>215.8513909462214</v>
+        <v>139.3161998109844</v>
       </c>
       <c r="R17" t="n">
         <v>215.8513909462214</v>
@@ -5543,7 +5543,7 @@
         <v>215.8513909462214</v>
       </c>
       <c r="T17" t="n">
-        <v>292.3865820814584</v>
+        <v>215.8513909462214</v>
       </c>
       <c r="U17" t="n">
         <v>292.3865820814584</v>
@@ -5555,10 +5555,10 @@
         <v>309.2330954959072</v>
       </c>
       <c r="X17" t="n">
-        <v>287.1257717899079</v>
+        <v>287.1257717899081</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.2882934134598</v>
+        <v>242.2882934134606</v>
       </c>
     </row>
     <row r="18">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>205.7319534618772</v>
+        <v>205.7319534618781</v>
       </c>
       <c r="C20" t="n">
-        <v>193.2985862341883</v>
+        <v>193.298586234189</v>
       </c>
       <c r="D20" t="n">
-        <v>193.4216473758925</v>
+        <v>193.4216473758931</v>
       </c>
       <c r="E20" t="n">
-        <v>159.4999824911761</v>
+        <v>159.4999824911767</v>
       </c>
       <c r="F20" t="n">
-        <v>93.53757257779563</v>
+        <v>93.53757257779625</v>
       </c>
       <c r="G20" t="n">
         <v>15.4484070485265</v>
@@ -5747,43 +5747,43 @@
         <v>6.184661909918143</v>
       </c>
       <c r="I20" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="J20" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="K20" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="L20" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="M20" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="N20" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="O20" t="n">
-        <v>6.184661909918143</v>
+        <v>82.71985304515516</v>
       </c>
       <c r="P20" t="n">
-        <v>82.71985304515516</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="Q20" t="n">
-        <v>82.71985304515516</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="R20" t="n">
-        <v>139.3161998109844</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="S20" t="n">
-        <v>215.8513909462214</v>
+        <v>159.2550441803922</v>
       </c>
       <c r="T20" t="n">
-        <v>215.8513909462214</v>
+        <v>232.6979043606701</v>
       </c>
       <c r="U20" t="n">
-        <v>292.3865820814584</v>
+        <v>309.2330954959072</v>
       </c>
       <c r="V20" t="n">
         <v>309.2330954959072</v>
@@ -5795,7 +5795,7 @@
         <v>287.1257717899079</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.2882934134595</v>
+        <v>242.2882934134604</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.731953461878</v>
+        <v>205.7319534618774</v>
       </c>
       <c r="C23" t="n">
-        <v>193.2985862341892</v>
+        <v>193.2985862341886</v>
       </c>
       <c r="D23" t="n">
-        <v>193.4216473758935</v>
+        <v>193.4216473758928</v>
       </c>
       <c r="E23" t="n">
-        <v>159.499982491177</v>
+        <v>159.4999824911763</v>
       </c>
       <c r="F23" t="n">
-        <v>93.5375725777966</v>
+        <v>93.53757257779603</v>
       </c>
       <c r="G23" t="n">
-        <v>15.4484070485265</v>
+        <v>15.44840704852649</v>
       </c>
       <c r="H23" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="I23" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="J23" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="K23" t="n">
-        <v>6.184661909918143</v>
+        <v>79.62752209019595</v>
       </c>
       <c r="L23" t="n">
-        <v>6.184661909918143</v>
+        <v>156.1627132254328</v>
       </c>
       <c r="M23" t="n">
-        <v>79.62752209019608</v>
+        <v>156.1627132254328</v>
       </c>
       <c r="N23" t="n">
-        <v>79.62752209019608</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="O23" t="n">
-        <v>79.62752209019608</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="P23" t="n">
-        <v>79.62752209019608</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.62752209019608</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="R23" t="n">
-        <v>79.62752209019608</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="S23" t="n">
-        <v>156.1627132254331</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="T23" t="n">
-        <v>232.6979043606701</v>
+        <v>232.6979043606697</v>
       </c>
       <c r="U23" t="n">
-        <v>309.2330954959072</v>
+        <v>309.2330954959065</v>
       </c>
       <c r="V23" t="n">
-        <v>309.2330954959072</v>
+        <v>309.2330954959065</v>
       </c>
       <c r="W23" t="n">
-        <v>309.2330954959072</v>
+        <v>309.2330954959065</v>
       </c>
       <c r="X23" t="n">
-        <v>287.1257717899078</v>
+        <v>287.1257717899073</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.2882934134603</v>
+        <v>242.2882934134598</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="C24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="D24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="E24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="F24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="G24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="H24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="I24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="J24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="K24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="L24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="M24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="N24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="O24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="P24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="R24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="S24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="T24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="U24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="V24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="W24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="X24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="C25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="D25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="E25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="F25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="G25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="H25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="I25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="J25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="K25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="L25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="M25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="N25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="O25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="P25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="R25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="S25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="T25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="U25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="V25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="W25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="X25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.184661909918143</v>
+        <v>6.18466190991813</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>935.5726396339271</v>
+        <v>935.5726396339276</v>
       </c>
       <c r="C26" t="n">
-        <v>809.1817068302289</v>
+        <v>809.1817068302294</v>
       </c>
       <c r="D26" t="n">
-        <v>695.349701035573</v>
+        <v>695.3497010355732</v>
       </c>
       <c r="E26" t="n">
-        <v>547.4704705748472</v>
+        <v>547.4704705748474</v>
       </c>
       <c r="F26" t="n">
-        <v>367.5504950854574</v>
+        <v>367.5504950854576</v>
       </c>
       <c r="G26" t="n">
-        <v>171.82907328801</v>
+        <v>171.8290732880098</v>
       </c>
       <c r="H26" t="n">
-        <v>48.60776257339234</v>
+        <v>48.60776257339231</v>
       </c>
       <c r="I26" t="n">
         <v>32.33997457585512</v>
       </c>
       <c r="J26" t="n">
-        <v>32.33997457585512</v>
+        <v>178.7750323211971</v>
       </c>
       <c r="K26" t="n">
-        <v>247.9399775780631</v>
+        <v>373.6451002319226</v>
       </c>
       <c r="L26" t="n">
-        <v>516.784145372141</v>
+        <v>642.4892680260004</v>
       </c>
       <c r="M26" t="n">
-        <v>819.6899931225422</v>
+        <v>945.3951157764018</v>
       </c>
       <c r="N26" t="n">
-        <v>1117.049153180974</v>
+        <v>1019.926586668372</v>
       </c>
       <c r="O26" t="n">
-        <v>1373.345438099233</v>
+        <v>1276.22287158663</v>
       </c>
       <c r="P26" t="n">
-        <v>1580.59022680112</v>
+        <v>1483.467660288517</v>
       </c>
       <c r="Q26" t="n">
-        <v>1587.384145936758</v>
+        <v>1616.998728792756</v>
       </c>
       <c r="R26" t="n">
         <v>1616.998728792756</v>
@@ -6254,16 +6254,16 @@
         <v>1614.431800908102</v>
       </c>
       <c r="T26" t="n">
-        <v>1616.998728792755</v>
+        <v>1616.998728792756</v>
       </c>
       <c r="U26" t="n">
-        <v>1591.673043672634</v>
+        <v>1591.673043672635</v>
       </c>
       <c r="V26" t="n">
-        <v>1494.904043971993</v>
+        <v>1494.904043971994</v>
       </c>
       <c r="W26" t="n">
-        <v>1380.946478395984</v>
+        <v>1380.946478395985</v>
       </c>
       <c r="X26" t="n">
         <v>1244.881589113976</v>
@@ -6309,37 +6309,37 @@
         <v>32.33997457585512</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3867533383428</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3867533383428</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="O27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="P27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="R27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="S27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="T27" t="n">
-        <v>102.3867533383428</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="U27" t="n">
-        <v>90.11427425401536</v>
+        <v>90.1142742540153</v>
       </c>
       <c r="V27" t="n">
-        <v>74.38655000160662</v>
+        <v>74.38655000160659</v>
       </c>
       <c r="W27" t="n">
         <v>32.33997457585512</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="C28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="D28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="E28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="F28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="G28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="H28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="I28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="J28" t="n">
-        <v>32.33997457585512</v>
+        <v>50.63065826696436</v>
       </c>
       <c r="K28" t="n">
-        <v>32.33997457585512</v>
+        <v>138.3877933530435</v>
       </c>
       <c r="L28" t="n">
-        <v>171.8421955422966</v>
+        <v>138.3877933530435</v>
       </c>
       <c r="M28" t="n">
-        <v>171.8421955422966</v>
+        <v>138.3877933530435</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8421955422966</v>
+        <v>138.3877933530435</v>
       </c>
       <c r="O28" t="n">
-        <v>171.8421955422966</v>
+        <v>138.3877933530435</v>
       </c>
       <c r="P28" t="n">
-        <v>171.8421955422966</v>
+        <v>138.3877933530435</v>
       </c>
       <c r="Q28" t="n">
-        <v>171.8421955422966</v>
+        <v>193.1841994794752</v>
       </c>
       <c r="R28" t="n">
-        <v>193.1841994794753</v>
+        <v>193.1841994794752</v>
       </c>
       <c r="S28" t="n">
         <v>182.6843865321935</v>
@@ -6418,7 +6418,7 @@
         <v>118.4639891846935</v>
       </c>
       <c r="V28" t="n">
-        <v>98.23111920597404</v>
+        <v>98.23111920597401</v>
       </c>
       <c r="W28" t="n">
         <v>32.33997457585512</v>
@@ -6443,13 +6443,13 @@
         <v>809.1817068302298</v>
       </c>
       <c r="D29" t="n">
-        <v>695.3497010355736</v>
+        <v>695.3497010355734</v>
       </c>
       <c r="E29" t="n">
-        <v>547.4704705748478</v>
+        <v>547.4704705748475</v>
       </c>
       <c r="F29" t="n">
-        <v>367.5504950854581</v>
+        <v>367.5504950854577</v>
       </c>
       <c r="G29" t="n">
         <v>171.8290732880099</v>
@@ -6464,22 +6464,22 @@
         <v>178.7750323211972</v>
       </c>
       <c r="K29" t="n">
-        <v>394.3750353234054</v>
+        <v>373.645100231921</v>
       </c>
       <c r="L29" t="n">
-        <v>663.2192031174834</v>
+        <v>642.4892680259991</v>
       </c>
       <c r="M29" t="n">
-        <v>966.125050867885</v>
+        <v>945.3951157764006</v>
       </c>
       <c r="N29" t="n">
-        <v>1263.484210926317</v>
+        <v>1242.754275834833</v>
       </c>
       <c r="O29" t="n">
-        <v>1519.780495844577</v>
+        <v>1276.22287158663</v>
       </c>
       <c r="P29" t="n">
-        <v>1616.998728792756</v>
+        <v>1483.467660288517</v>
       </c>
       <c r="Q29" t="n">
         <v>1616.998728792756</v>
@@ -6552,7 +6552,7 @@
         <v>32.33997457585512</v>
       </c>
       <c r="N30" t="n">
-        <v>32.33997457585512</v>
+        <v>102.3867533383427</v>
       </c>
       <c r="O30" t="n">
         <v>102.3867533383427</v>
@@ -6610,37 +6610,37 @@
         <v>32.33997457585512</v>
       </c>
       <c r="G31" t="n">
-        <v>32.33997457585512</v>
+        <v>88.15189442020439</v>
       </c>
       <c r="H31" t="n">
-        <v>32.33997457585512</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="I31" t="n">
-        <v>32.33997457585512</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="J31" t="n">
-        <v>32.33997457585512</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="K31" t="n">
-        <v>97.24235049012654</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="L31" t="n">
-        <v>97.24235049012654</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="M31" t="n">
-        <v>97.24235049012654</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="N31" t="n">
-        <v>193.1841994794752</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="O31" t="n">
-        <v>193.1841994794752</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="P31" t="n">
-        <v>193.1841994794752</v>
+        <v>146.7956290261912</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.1841994794752</v>
+        <v>171.8421955422965</v>
       </c>
       <c r="R31" t="n">
         <v>193.1841994794752</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>935.5726396339271</v>
+        <v>935.5726396339275</v>
       </c>
       <c r="C32" t="n">
-        <v>809.1817068302289</v>
+        <v>809.1817068302292</v>
       </c>
       <c r="D32" t="n">
-        <v>695.3497010355726</v>
+        <v>695.3497010355728</v>
       </c>
       <c r="E32" t="n">
-        <v>547.4704705748468</v>
+        <v>547.470470574847</v>
       </c>
       <c r="F32" t="n">
-        <v>367.550495085457</v>
+        <v>367.5504950854572</v>
       </c>
       <c r="G32" t="n">
         <v>171.8290732880101</v>
       </c>
       <c r="H32" t="n">
-        <v>48.60776257339239</v>
+        <v>48.60776257339236</v>
       </c>
       <c r="I32" t="n">
         <v>32.33997457585512</v>
       </c>
       <c r="J32" t="n">
-        <v>128.4305143737177</v>
+        <v>178.775032321197</v>
       </c>
       <c r="K32" t="n">
-        <v>344.0305173759257</v>
+        <v>223.7008919263466</v>
       </c>
       <c r="L32" t="n">
-        <v>612.8746851700034</v>
+        <v>390.0469960035407</v>
       </c>
       <c r="M32" t="n">
-        <v>915.7805329204047</v>
+        <v>692.9528437539419</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.139692978837</v>
+        <v>990.3120038123741</v>
       </c>
       <c r="O32" t="n">
         <v>1246.608288730633</v>
@@ -6737,7 +6737,7 @@
         <v>1494.904043971994</v>
       </c>
       <c r="W32" t="n">
-        <v>1380.946478395984</v>
+        <v>1380.946478395985</v>
       </c>
       <c r="X32" t="n">
         <v>1244.881589113976</v>
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.01722046963212</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="C33" t="n">
-        <v>34.01722046963212</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="D33" t="n">
-        <v>34.01722046963212</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="E33" t="n">
-        <v>34.01722046963212</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="F33" t="n">
-        <v>46.06547777216024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="G33" t="n">
-        <v>46.06547777216024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="H33" t="n">
-        <v>46.06547777216024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="I33" t="n">
-        <v>46.06547777216024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="J33" t="n">
-        <v>46.06547777216024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="K33" t="n">
-        <v>46.06547777216024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="L33" t="n">
-        <v>46.06547777216024</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3867533383429</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="N33" t="n">
-        <v>102.3867533383429</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="O33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="P33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="R33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="S33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="T33" t="n">
-        <v>102.3867533383429</v>
+        <v>102.3867533383428</v>
       </c>
       <c r="U33" t="n">
-        <v>90.11427425401547</v>
+        <v>90.11427425401541</v>
       </c>
       <c r="V33" t="n">
-        <v>74.38655000160668</v>
+        <v>74.38655000160665</v>
       </c>
       <c r="W33" t="n">
         <v>32.33997457585512</v>
@@ -6822,7 +6822,7 @@
         <v>32.33997457585512</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.01722046963212</v>
+        <v>32.33997457585512</v>
       </c>
     </row>
     <row r="34">
@@ -6832,67 +6832,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.19780365629074</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="C34" t="n">
-        <v>40.19780365629074</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="D34" t="n">
-        <v>40.19780365629074</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="E34" t="n">
-        <v>40.19780365629074</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="F34" t="n">
-        <v>40.19780365629074</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="G34" t="n">
-        <v>40.19780365629074</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="H34" t="n">
-        <v>98.84153826227747</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="I34" t="n">
-        <v>98.84153826227747</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="J34" t="n">
-        <v>98.84153826227747</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="K34" t="n">
-        <v>98.84153826227747</v>
+        <v>32.33997457585512</v>
       </c>
       <c r="L34" t="n">
-        <v>98.84153826227747</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="M34" t="n">
-        <v>98.84153826227747</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="N34" t="n">
-        <v>98.84153826227747</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="O34" t="n">
-        <v>193.1841994794756</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="P34" t="n">
-        <v>193.1841994794756</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.1841994794756</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="R34" t="n">
-        <v>193.1841994794756</v>
+        <v>193.1841994794755</v>
       </c>
       <c r="S34" t="n">
-        <v>182.6843865321937</v>
+        <v>182.6843865321936</v>
       </c>
       <c r="T34" t="n">
-        <v>182.6843865321937</v>
+        <v>182.6843865321936</v>
       </c>
       <c r="U34" t="n">
-        <v>118.4639891846937</v>
+        <v>118.4639891846936</v>
       </c>
       <c r="V34" t="n">
-        <v>98.2311192059741</v>
+        <v>98.23111920597407</v>
       </c>
       <c r="W34" t="n">
         <v>32.33997457585512</v>
@@ -6901,7 +6901,7 @@
         <v>32.33997457585512</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.19780365629074</v>
+        <v>32.33997457585512</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>769.7298669322358</v>
+        <v>769.7298669322497</v>
       </c>
       <c r="C35" t="n">
-        <v>667.2373212609102</v>
+        <v>667.2373212609218</v>
       </c>
       <c r="D35" t="n">
-        <v>577.3037025986267</v>
+        <v>577.3037025986361</v>
       </c>
       <c r="E35" t="n">
-        <v>453.3228592702736</v>
+        <v>453.3228592702808</v>
       </c>
       <c r="F35" t="n">
-        <v>297.3012709132565</v>
+        <v>297.3012709132615</v>
       </c>
       <c r="G35" t="n">
-        <v>125.4782362481816</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H35" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I35" t="n">
-        <v>33.63406287798883</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J35" t="n">
-        <v>203.4919298517693</v>
+        <v>203.4919298517656</v>
       </c>
       <c r="K35" t="n">
-        <v>310.8742799821294</v>
+        <v>203.4919298517656</v>
       </c>
       <c r="L35" t="n">
-        <v>603.1412570046457</v>
+        <v>495.7589068742797</v>
       </c>
       <c r="M35" t="n">
-        <v>683.2194155885845</v>
+        <v>819.4309011152512</v>
       </c>
       <c r="N35" t="n">
-        <v>723.4345859266791</v>
+        <v>981.1498388283821</v>
       </c>
       <c r="O35" t="n">
-        <v>1003.153680073377</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="P35" t="n">
-        <v>1233.821278003702</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="Q35" t="n">
-        <v>1233.821278003702</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="R35" t="n">
-        <v>1286.858670088138</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="S35" t="n">
-        <v>1307.765633296828</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="T35" t="n">
-        <v>1307.765633296828</v>
+        <v>1307.765633296855</v>
       </c>
       <c r="U35" t="n">
-        <v>1306.33833530908</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V35" t="n">
-        <v>1233.467722740811</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W35" t="n">
-        <v>1143.408544297175</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X35" t="n">
-        <v>1031.242042147539</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y35" t="n">
-        <v>896.3453853274549</v>
+        <v>896.3453853274708</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C36" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D36" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="F36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="G36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="H36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="I36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="J36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="K36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="L36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="M36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="N36" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="O36" t="n">
-        <v>36.29543427066264</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="P36" t="n">
-        <v>36.29543427066264</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.29543427066264</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="R36" t="n">
-        <v>36.29543427066264</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="S36" t="n">
-        <v>36.29543427066264</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="T36" t="n">
-        <v>36.29543427066264</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="U36" t="n">
-        <v>36.29543427066264</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V36" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W36" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X36" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="K37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="L37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="M37" t="n">
-        <v>83.7520794659939</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="N37" t="n">
-        <v>83.7520794659939</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="O37" t="n">
-        <v>83.7520794659939</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="P37" t="n">
-        <v>83.7520794659939</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.7520794659939</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="R37" t="n">
-        <v>83.7520794659939</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="S37" t="n">
-        <v>83.7520794659939</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T37" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U37" t="n">
-        <v>68.14807016368275</v>
+        <v>68.14807016368547</v>
       </c>
       <c r="V37" t="n">
-        <v>68.14807016368275</v>
+        <v>68.14807016368547</v>
       </c>
       <c r="W37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>769.7298669322356</v>
+        <v>769.7298669322496</v>
       </c>
       <c r="C38" t="n">
-        <v>667.2373212609101</v>
+        <v>667.2373212609219</v>
       </c>
       <c r="D38" t="n">
-        <v>577.3037025986265</v>
+        <v>577.3037025986362</v>
       </c>
       <c r="E38" t="n">
-        <v>453.3228592702734</v>
+        <v>453.3228592702809</v>
       </c>
       <c r="F38" t="n">
-        <v>297.3012709132563</v>
+        <v>297.3012709132616</v>
       </c>
       <c r="G38" t="n">
-        <v>125.4782362481816</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H38" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I38" t="n">
-        <v>26.15531266593655</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J38" t="n">
-        <v>196.013179639717</v>
+        <v>203.4919298517656</v>
       </c>
       <c r="K38" t="n">
-        <v>326.1952357438745</v>
+        <v>442.51474208241</v>
       </c>
       <c r="L38" t="n">
-        <v>618.4622127663908</v>
+        <v>734.7817191049242</v>
       </c>
       <c r="M38" t="n">
-        <v>698.5403713503297</v>
+        <v>814.859877688863</v>
       </c>
       <c r="N38" t="n">
-        <v>1019.3223406372</v>
+        <v>855.0750480269555</v>
       </c>
       <c r="O38" t="n">
-        <v>1019.3223406372</v>
+        <v>949.8488772284755</v>
       </c>
       <c r="P38" t="n">
-        <v>1249.989938567526</v>
+        <v>1180.516475158799</v>
       </c>
       <c r="Q38" t="n">
-        <v>1249.989938567526</v>
+        <v>1286.858670088167</v>
       </c>
       <c r="R38" t="n">
-        <v>1260.868932975046</v>
+        <v>1286.858670088167</v>
       </c>
       <c r="S38" t="n">
-        <v>1281.775896183736</v>
+        <v>1307.765633296854</v>
       </c>
       <c r="T38" t="n">
-        <v>1307.765633296827</v>
+        <v>1307.765633296854</v>
       </c>
       <c r="U38" t="n">
-        <v>1306.338335309079</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V38" t="n">
-        <v>1233.467722740811</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W38" t="n">
-        <v>1143.408544297175</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X38" t="n">
-        <v>1031.242042147539</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y38" t="n">
-        <v>896.3453853274546</v>
+        <v>896.3453853274707</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="C39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="D39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="E39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="F39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="G39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="H39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="I39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="J39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="K39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="L39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="M39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="N39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="O39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="P39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="R39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="S39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="T39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="U39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V39" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W39" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X39" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y39" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="K40" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="L40" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="M40" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="N40" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="O40" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="P40" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="R40" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="S40" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T40" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U40" t="n">
-        <v>68.14807016368275</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="V40" t="n">
-        <v>68.14807016368275</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="W40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>769.7298669322349</v>
+        <v>769.7298669322493</v>
       </c>
       <c r="C41" t="n">
-        <v>667.2373212609095</v>
+        <v>667.2373212609214</v>
       </c>
       <c r="D41" t="n">
-        <v>577.3037025986262</v>
+        <v>577.3037025986357</v>
       </c>
       <c r="E41" t="n">
-        <v>453.3228592702731</v>
+        <v>453.3228592702803</v>
       </c>
       <c r="F41" t="n">
-        <v>297.3012709132563</v>
+        <v>297.301270913261</v>
       </c>
       <c r="G41" t="n">
-        <v>125.4782362481816</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H41" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I41" t="n">
-        <v>26.15531266593655</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J41" t="n">
-        <v>87.53431907452823</v>
+        <v>203.4919298517656</v>
       </c>
       <c r="K41" t="n">
-        <v>314.1167028192525</v>
+        <v>442.51474208241</v>
       </c>
       <c r="L41" t="n">
-        <v>606.3836798417688</v>
+        <v>734.7817191049242</v>
       </c>
       <c r="M41" t="n">
-        <v>930.0556740827335</v>
+        <v>1058.453713345896</v>
       </c>
       <c r="N41" t="n">
-        <v>970.2708444208281</v>
+        <v>1058.453713345896</v>
       </c>
       <c r="O41" t="n">
-        <v>1249.989938567526</v>
+        <v>1058.453713345896</v>
       </c>
       <c r="P41" t="n">
-        <v>1249.989938567526</v>
+        <v>1058.453713345896</v>
       </c>
       <c r="Q41" t="n">
-        <v>1249.989938567526</v>
+        <v>1207.831540890643</v>
       </c>
       <c r="R41" t="n">
-        <v>1260.868932975046</v>
+        <v>1260.868932975077</v>
       </c>
       <c r="S41" t="n">
-        <v>1281.775896183736</v>
+        <v>1281.775896183765</v>
       </c>
       <c r="T41" t="n">
-        <v>1307.765633296827</v>
+        <v>1307.765633296854</v>
       </c>
       <c r="U41" t="n">
-        <v>1306.338335309079</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V41" t="n">
-        <v>1233.467722740811</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W41" t="n">
-        <v>1143.408544297174</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X41" t="n">
-        <v>1031.242042147538</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y41" t="n">
-        <v>896.3453853274539</v>
+        <v>896.3453853274704</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C42" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D42" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E42" t="n">
-        <v>44.30350095931534</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F42" t="n">
-        <v>44.30350095931534</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G42" t="n">
-        <v>44.30350095931534</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="I42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="J42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="K42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="L42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="M42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="N42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="O42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="P42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="R42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="S42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="T42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="U42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V42" t="n">
-        <v>44.30350095931534</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W42" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X42" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y42" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="F43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="G43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="H43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="J43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="K43" t="n">
-        <v>108.47008037881</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="L43" t="n">
-        <v>108.47008037881</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="M43" t="n">
-        <v>108.47008037881</v>
+        <v>30.25086502394682</v>
       </c>
       <c r="N43" t="n">
-        <v>108.47008037881</v>
+        <v>30.25086502394682</v>
       </c>
       <c r="O43" t="n">
-        <v>108.47008037881</v>
+        <v>30.25086502394682</v>
       </c>
       <c r="P43" t="n">
-        <v>108.47008037881</v>
+        <v>30.25086502394682</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="R43" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="S43" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T43" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U43" t="n">
-        <v>68.14807016368275</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="V43" t="n">
-        <v>68.14807016368275</v>
+        <v>68.14807016368546</v>
       </c>
       <c r="W43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>769.7298669322365</v>
+        <v>769.7298669322491</v>
       </c>
       <c r="C44" t="n">
-        <v>667.2373212609109</v>
+        <v>667.2373212609216</v>
       </c>
       <c r="D44" t="n">
-        <v>577.3037025986273</v>
+        <v>577.3037025986357</v>
       </c>
       <c r="E44" t="n">
-        <v>453.3228592702739</v>
+        <v>453.3228592702804</v>
       </c>
       <c r="F44" t="n">
-        <v>297.3012709132568</v>
+        <v>297.3012709132612</v>
       </c>
       <c r="G44" t="n">
-        <v>125.4782362481815</v>
+        <v>125.4782362481843</v>
       </c>
       <c r="H44" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="I44" t="n">
-        <v>33.63406287798886</v>
+        <v>33.63406287798723</v>
       </c>
       <c r="J44" t="n">
-        <v>203.4919298517693</v>
+        <v>95.01306928657678</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5147420824159</v>
+        <v>126.0901164445675</v>
       </c>
       <c r="L44" t="n">
-        <v>488.5312207100312</v>
+        <v>344.6803874349337</v>
       </c>
       <c r="M44" t="n">
-        <v>812.203214950996</v>
+        <v>668.3523816759052</v>
       </c>
       <c r="N44" t="n">
-        <v>1132.985184237867</v>
+        <v>989.1343509627739</v>
       </c>
       <c r="O44" t="n">
-        <v>1166.453779989663</v>
+        <v>1024.562512825793</v>
       </c>
       <c r="P44" t="n">
-        <v>1255.230110756082</v>
+        <v>1255.230110756116</v>
       </c>
       <c r="Q44" t="n">
-        <v>1275.979675680617</v>
+        <v>1275.979675680649</v>
       </c>
       <c r="R44" t="n">
-        <v>1286.858670088138</v>
+        <v>1286.858670088167</v>
       </c>
       <c r="S44" t="n">
-        <v>1307.765633296827</v>
+        <v>1307.765633296855</v>
       </c>
       <c r="T44" t="n">
-        <v>1307.765633296827</v>
+        <v>1307.765633296855</v>
       </c>
       <c r="U44" t="n">
-        <v>1306.33833530908</v>
+        <v>1306.338335309104</v>
       </c>
       <c r="V44" t="n">
-        <v>1233.467722740812</v>
+        <v>1233.467722740834</v>
       </c>
       <c r="W44" t="n">
-        <v>1143.408544297175</v>
+        <v>1143.408544297195</v>
       </c>
       <c r="X44" t="n">
-        <v>1031.24204214754</v>
+        <v>1031.242042147557</v>
       </c>
       <c r="Y44" t="n">
-        <v>896.3453853274555</v>
+        <v>896.3453853274702</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="C45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="D45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="E45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="F45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="G45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="H45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="I45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="J45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="K45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="L45" t="n">
-        <v>26.15531266593655</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="M45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="N45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="O45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="P45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="R45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="S45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="T45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="U45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="V45" t="n">
-        <v>44.30350095931531</v>
+        <v>44.30350095931806</v>
       </c>
       <c r="W45" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X45" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y45" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="C46" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="D46" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="E46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="F46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="G46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="H46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="I46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="J46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="K46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="L46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="M46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="N46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="O46" t="n">
-        <v>26.15531266593655</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="P46" t="n">
-        <v>83.75207946599382</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.75207946599382</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="R46" t="n">
-        <v>83.75207946599382</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="S46" t="n">
-        <v>83.75207946599382</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="T46" t="n">
-        <v>108.47008037881</v>
+        <v>108.4700803788149</v>
       </c>
       <c r="U46" t="n">
-        <v>68.14807016368272</v>
+        <v>68.14807016368547</v>
       </c>
       <c r="V46" t="n">
-        <v>68.14807016368272</v>
+        <v>68.14807016368547</v>
       </c>
       <c r="W46" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="X46" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.15531266593655</v>
+        <v>26.15531266593709</v>
       </c>
     </row>
   </sheetData>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.5746066315038</v>
+        <v>9.035397957397322</v>
       </c>
       <c r="K11" t="n">
-        <v>191.5339336580455</v>
+        <v>113.3688503060373</v>
       </c>
       <c r="L11" t="n">
-        <v>270.6444670286918</v>
+        <v>94.84830857809058</v>
       </c>
       <c r="M11" t="n">
-        <v>81.08287392313643</v>
+        <v>287.7060147046653</v>
       </c>
       <c r="N11" t="n">
-        <v>78.80162607911944</v>
+        <v>78.80162607911757</v>
       </c>
       <c r="O11" t="n">
         <v>246.758517458259</v>
@@ -8708,7 +8708,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>21.15557989560674</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>57.42401388669781</v>
       </c>
       <c r="K14" t="n">
         <v>210.0462273461148</v>
@@ -8933,22 +8933,22 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>211.2333674992864</v>
+        <v>33.50197560060354</v>
       </c>
       <c r="N14" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O14" t="n">
-        <v>83.63698817515352</v>
+        <v>212.951855082707</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>17.64272561316143</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.46385376958398</v>
+        <v>98.46385376958355</v>
       </c>
       <c r="R14" t="n">
-        <v>42.58424007769262</v>
+        <v>31.12585314511626</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.155115367888421</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9948,22 +9948,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>76.37264424070024</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>133.4162086752796</v>
+        <v>114.3297957923469</v>
       </c>
       <c r="L27" t="n">
-        <v>193.064535483256</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M27" t="n">
         <v>118.8763318018291</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>175.0208486833976</v>
       </c>
       <c r="O27" t="n">
         <v>122.7654716528816</v>
@@ -9972,7 +9972,7 @@
         <v>122.3547008802396</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10042,7 +10042,7 @@
         <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
         <v>105.6509998050918</v>
@@ -10051,7 +10051,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>189.106898970878</v>
       </c>
       <c r="L29" t="n">
         <v>270.6444670286918</v>
@@ -10133,7 +10133,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
-        <v>42.58424007769262</v>
+        <v>12.67052002112929</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
         <v>81.70699090058493</v>
@@ -10194,16 +10194,16 @@
         <v>133.4162086752794</v>
       </c>
       <c r="L30" t="n">
-        <v>62.22872864610011</v>
+        <v>122.310213500945</v>
       </c>
       <c r="M30" t="n">
-        <v>118.8763318018289</v>
+        <v>97.78994666639062</v>
       </c>
       <c r="N30" t="n">
-        <v>104.2665267010868</v>
+        <v>175.0208486833974</v>
       </c>
       <c r="O30" t="n">
-        <v>193.5197936351921</v>
+        <v>122.7654716528814</v>
       </c>
       <c r="P30" t="n">
         <v>122.3547008802395</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
         <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>270.6444670286918</v>
+        <v>167.11106933487</v>
       </c>
       <c r="M32" t="n">
         <v>291.2847697033555</v>
@@ -10425,7 +10425,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
         <v>133.4162086752796</v>
@@ -10434,13 +10434,13 @@
         <v>122.3102135009452</v>
       </c>
       <c r="M33" t="n">
-        <v>175.7665091414076</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N33" t="n">
         <v>104.266526701087</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>193.5197936351925</v>
       </c>
       <c r="P33" t="n">
         <v>122.3547008802396</v>
@@ -10525,7 +10525,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>130.3689618081757</v>
+        <v>93.22544140442528</v>
       </c>
       <c r="L35" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>291.2847697033555</v>
+        <v>288.6012719883392</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10604,10 +10604,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>122.3547008802396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>100.1060696425905</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
         <v>270.6444670286918</v>
@@ -10832,16 +10832,16 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>158.8452018516814</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>86.4572020250863</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,13 +10978,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
         <v>115.6742602693208</v>
@@ -10993,13 +10993,13 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11066,22 +11066,22 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>288.6012719883303</v>
+        <v>288.6012719883391</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>208.116492986673</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>212.951855082707</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>128.4736478612925</v>
       </c>
       <c r="Q41" t="n">
-        <v>127.5187253273593</v>
+        <v>129.9275380002168</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>133.4162086752796</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>196.223551844704</v>
       </c>
       <c r="M44" t="n">
-        <v>288.6012719883303</v>
+        <v>288.6012719883391</v>
       </c>
       <c r="N44" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>65.20105060834705</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>133.4162086752796</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>118.8763318018291</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>104.266526701087</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P45" t="n">
-        <v>8.325443334211961</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,28 +11452,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>61.66655095545099</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.464099596303</v>
+        <v>167.4640995963026</v>
       </c>
       <c r="C11" t="n">
-        <v>140.0135820941506</v>
+        <v>143.5823565996481</v>
       </c>
       <c r="D11" t="n">
-        <v>131.1490188606969</v>
+        <v>53.84074498672126</v>
       </c>
       <c r="E11" t="n">
-        <v>87.547497406129</v>
+        <v>164.8557712801054</v>
       </c>
       <c r="F11" t="n">
-        <v>196.5761088584831</v>
+        <v>144.3454579051266</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2195407034605</v>
+        <v>134.9112668294849</v>
       </c>
       <c r="H11" t="n">
-        <v>140.4444307314588</v>
+        <v>140.4444307314584</v>
       </c>
       <c r="I11" t="n">
-        <v>34.56044324154907</v>
+        <v>34.56044324154869</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20.99659172979371</v>
       </c>
       <c r="T11" t="n">
-        <v>15.86247667484252</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>43.5277613929064</v>
       </c>
       <c r="V11" t="n">
-        <v>36.94836895364486</v>
+        <v>114.2566428276213</v>
       </c>
       <c r="W11" t="n">
-        <v>53.96504917025976</v>
+        <v>131.2733230442362</v>
       </c>
       <c r="X11" t="n">
-        <v>153.1595735131758</v>
+        <v>153.1595735131754</v>
       </c>
       <c r="Y11" t="n">
-        <v>175.6624266369195</v>
+        <v>98.35415276294387</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.725252624035432</v>
+        <v>4.725252624036568</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6.379292433828169</v>
+        <v>6.379292433829306</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.464099596303</v>
+        <v>167.4640995963026</v>
       </c>
       <c r="C14" t="n">
-        <v>143.5823565996485</v>
+        <v>143.5823565996481</v>
       </c>
       <c r="D14" t="n">
-        <v>131.149018860697</v>
+        <v>53.84074498671978</v>
       </c>
       <c r="E14" t="n">
-        <v>164.8557712801059</v>
+        <v>164.8557712801054</v>
       </c>
       <c r="F14" t="n">
-        <v>119.2678349845064</v>
+        <v>196.5761088584827</v>
       </c>
       <c r="G14" t="n">
-        <v>180.9854814798988</v>
+        <v>212.2195407034602</v>
       </c>
       <c r="H14" t="n">
-        <v>140.4444307314589</v>
+        <v>63.13615685748166</v>
       </c>
       <c r="I14" t="n">
-        <v>34.56044324154915</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.99659172979371</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>15.86247667484215</v>
       </c>
       <c r="U14" t="n">
-        <v>43.52776139290685</v>
+        <v>43.5277613929064</v>
       </c>
       <c r="V14" t="n">
-        <v>114.2566428276217</v>
+        <v>36.94836895364449</v>
       </c>
       <c r="W14" t="n">
-        <v>53.96504917025982</v>
+        <v>131.2733230442362</v>
       </c>
       <c r="X14" t="n">
-        <v>75.85129963919906</v>
+        <v>153.1595735131754</v>
       </c>
       <c r="Y14" t="n">
-        <v>175.6624266369196</v>
+        <v>142.1297422502691</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.725252624035517</v>
+        <v>4.725252624035062</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.379292433828255</v>
+        <v>6.3792924338278</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.637943785247217</v>
+        <v>3.637943785247243</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.465938895416912e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.637943785247243</v>
+        <v>3.637943785247357</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1099077.959688706</v>
+        <v>1099077.959688705</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1269479.996731895</v>
+        <v>1269479.996731898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1269479.996731895</v>
+        <v>1269479.996731898</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1269479.996731895</v>
+        <v>1269479.996731898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1269479.996731895</v>
+        <v>1269479.996731898</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>352772.7980705836</v>
+        <v>352772.7980705839</v>
       </c>
       <c r="C2" t="n">
-        <v>352772.7980705839</v>
+        <v>352772.798070584</v>
       </c>
       <c r="D2" t="n">
-        <v>352772.798070584</v>
+        <v>352772.7980705838</v>
       </c>
       <c r="E2" t="n">
+        <v>304169.7838033752</v>
+      </c>
+      <c r="F2" t="n">
         <v>304169.7838033754</v>
-      </c>
-      <c r="F2" t="n">
-        <v>304169.7838033752</v>
       </c>
       <c r="G2" t="n">
         <v>353371.5874132919</v>
@@ -26332,10 +26332,10 @@
         <v>353371.587413292</v>
       </c>
       <c r="I2" t="n">
-        <v>353371.5874132919</v>
+        <v>353371.587413292</v>
       </c>
       <c r="J2" t="n">
-        <v>353487.4195434141</v>
+        <v>353487.4195434142</v>
       </c>
       <c r="K2" t="n">
         <v>353487.4195434143</v>
@@ -26344,16 +26344,16 @@
         <v>353487.4195434143</v>
       </c>
       <c r="M2" t="n">
-        <v>353487.4195434145</v>
+        <v>353487.4195434141</v>
       </c>
       <c r="N2" t="n">
-        <v>353487.4195434145</v>
+        <v>353487.4195434142</v>
       </c>
       <c r="O2" t="n">
-        <v>353487.4195434144</v>
+        <v>353487.419543414</v>
       </c>
       <c r="P2" t="n">
-        <v>353487.4195434144</v>
+        <v>353487.4195434139</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268761.443509267</v>
+        <v>268761.4435092669</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105018.6584353893</v>
+        <v>105018.6584353889</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160586.378528605</v>
+        <v>160586.3785286054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105018.6584353892</v>
+        <v>105018.6584353889</v>
       </c>
       <c r="M3" t="n">
-        <v>18927.52260883924</v>
+        <v>18927.52260883749</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>75044.12068902486</v>
+        <v>75044.12068902518</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>403153.3438384772</v>
+        <v>403153.343838477</v>
       </c>
       <c r="F4" t="n">
-        <v>403153.3438384772</v>
+        <v>403153.3438384774</v>
       </c>
       <c r="G4" t="n">
         <v>469655.139398573</v>
       </c>
       <c r="H4" t="n">
+        <v>469655.139398573</v>
+      </c>
+      <c r="I4" t="n">
         <v>469655.1393985729</v>
-      </c>
-      <c r="I4" t="n">
-        <v>469655.139398573</v>
       </c>
       <c r="J4" t="n">
         <v>476917.3915607379</v>
@@ -26448,16 +26448,16 @@
         <v>476917.3915607379</v>
       </c>
       <c r="M4" t="n">
-        <v>474592.8873966299</v>
+        <v>474592.88739663</v>
       </c>
       <c r="N4" t="n">
-        <v>474592.8873966298</v>
+        <v>474592.88739663</v>
       </c>
       <c r="O4" t="n">
-        <v>474592.8873966298</v>
+        <v>474592.88739663</v>
       </c>
       <c r="P4" t="n">
-        <v>474592.8873966299</v>
+        <v>474592.88739663</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24252.0314572216</v>
+        <v>24252.03145722154</v>
       </c>
       <c r="F5" t="n">
-        <v>24252.03145722159</v>
+        <v>24252.03145722163</v>
       </c>
       <c r="G5" t="n">
         <v>35288.04845222752</v>
@@ -26488,7 +26488,7 @@
         <v>35288.04845222752</v>
       </c>
       <c r="I5" t="n">
-        <v>35288.04845222752</v>
+        <v>35288.04845222751</v>
       </c>
       <c r="J5" t="n">
         <v>45681.59048373418</v>
@@ -26497,19 +26497,19 @@
         <v>45681.59048373418</v>
       </c>
       <c r="L5" t="n">
-        <v>45681.59048373417</v>
+        <v>45681.59048373418</v>
       </c>
       <c r="M5" t="n">
-        <v>42970.2698049492</v>
+        <v>42970.26980494942</v>
       </c>
       <c r="N5" t="n">
-        <v>42970.26980494919</v>
+        <v>42970.26980494942</v>
       </c>
       <c r="O5" t="n">
-        <v>42970.26980494919</v>
+        <v>42970.26980494942</v>
       </c>
       <c r="P5" t="n">
-        <v>42970.26980494919</v>
+        <v>42970.26980494942</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184232.5476662962</v>
+        <v>-184237.0140505011</v>
       </c>
       <c r="C6" t="n">
-        <v>-184232.5476662959</v>
+        <v>-184237.014050501</v>
       </c>
       <c r="D6" t="n">
-        <v>-184232.5476662959</v>
+        <v>-184237.0140505012</v>
       </c>
       <c r="E6" t="n">
-        <v>-391997.0350015904</v>
+        <v>-392305.2702249655</v>
       </c>
       <c r="F6" t="n">
-        <v>-123235.5914923235</v>
+        <v>-123543.8267156989</v>
       </c>
       <c r="G6" t="n">
-        <v>-256590.2588728979</v>
+        <v>-256590.9828237108</v>
       </c>
       <c r="H6" t="n">
-        <v>-151571.6004375085</v>
+        <v>-151572.3243883218</v>
       </c>
       <c r="I6" t="n">
-        <v>-151571.6004375086</v>
+        <v>-151572.3243883217</v>
       </c>
       <c r="J6" t="n">
-        <v>-329697.941029663</v>
+        <v>-329697.9410296632</v>
       </c>
       <c r="K6" t="n">
         <v>-169111.5625010577</v>
       </c>
       <c r="L6" t="n">
-        <v>-274130.220936447</v>
+        <v>-274130.2209364467</v>
       </c>
       <c r="M6" t="n">
-        <v>-183003.2602670039</v>
+        <v>-183003.2602670029</v>
       </c>
       <c r="N6" t="n">
-        <v>-164075.7376581645</v>
+        <v>-164075.7376581652</v>
       </c>
       <c r="O6" t="n">
-        <v>-239119.8583471894</v>
+        <v>-239119.8583471905</v>
       </c>
       <c r="P6" t="n">
-        <v>-164075.7376581647</v>
+        <v>-164075.7376581655</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F2" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G2" t="n">
         <v>337.8964638257669</v>
@@ -26713,19 +26713,19 @@
         <v>225.0784739055176</v>
       </c>
       <c r="L2" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="M2" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="N2" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O2" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P2" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="F4" t="n">
         <v>77.30827387397679</v>
@@ -26808,7 +26808,7 @@
         <v>77.30827387397679</v>
       </c>
       <c r="I4" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397663</v>
       </c>
       <c r="J4" t="n">
         <v>404.2496821981889</v>
@@ -26820,16 +26820,16 @@
         <v>404.2496821981889</v>
       </c>
       <c r="M4" t="n">
-        <v>326.9414083242069</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N4" t="n">
-        <v>326.9414083242069</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="O4" t="n">
-        <v>326.9414083242069</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="P4" t="n">
-        <v>326.9414083242069</v>
+        <v>326.9414083242136</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.2733230442366</v>
+        <v>131.2733230442362</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.80515086128108</v>
+        <v>93.80515086128148</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.49269214332457e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.2733230442365</v>
+        <v>131.2733230442361</v>
       </c>
       <c r="M2" t="n">
-        <v>23.65940326104905</v>
+        <v>23.65940326104686</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.80515086128108</v>
+        <v>93.80515086128148</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>326.9414083242121</v>
+        <v>326.9414083242123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.2733230442366</v>
+        <v>131.2733230442362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.80515086128108</v>
+        <v>93.80515086128148</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,43 +28087,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="C11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="D11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="E11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="H11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="I11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="J11" t="n">
-        <v>77.16427416274794</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="K11" t="n">
-        <v>97.01801399146076</v>
+        <v>103.9780701352839</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="M11" t="n">
-        <v>206.6231407815304</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,31 +28132,31 @@
         <v>15.7403034995714</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.19860672951924</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="R11" t="n">
-        <v>195.1647538489544</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>206.6231407815304</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28187,55 +28187,55 @@
         <v>125.758822055979</v>
       </c>
       <c r="I12" t="n">
-        <v>107.4464644498494</v>
+        <v>171.9418057261254</v>
       </c>
       <c r="J12" t="n">
-        <v>134.4100680990574</v>
+        <v>52.70307719847251</v>
       </c>
       <c r="K12" t="n">
-        <v>133.4162086752796</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>131.7308016690585</v>
+        <v>122.3102135009452</v>
       </c>
       <c r="M12" t="n">
         <v>118.8763318018291</v>
       </c>
       <c r="N12" t="n">
-        <v>181.5748005750638</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>122.7654716528816</v>
       </c>
       <c r="P12" t="n">
-        <v>122.3547008802396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>7.177380294162102</v>
       </c>
       <c r="R12" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S12" t="n">
-        <v>191.6355982166063</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T12" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U12" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V12" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W12" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X12" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y12" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28263,58 +28263,58 @@
         <v>168.7027972950638</v>
       </c>
       <c r="H13" t="n">
-        <v>173.4369008196819</v>
+        <v>165.8423783439148</v>
       </c>
       <c r="I13" t="n">
-        <v>164.9137861866083</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="J13" t="n">
-        <v>120.3825889942416</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K13" t="n">
-        <v>206.6231407815304</v>
+        <v>141.398866229047</v>
       </c>
       <c r="L13" t="n">
-        <v>206.6231407815304</v>
+        <v>137.7360938000358</v>
       </c>
       <c r="M13" t="n">
-        <v>25.53388076157939</v>
+        <v>141.2081410309002</v>
       </c>
       <c r="N13" t="n">
         <v>16.82963481520679</v>
       </c>
       <c r="O13" t="n">
-        <v>206.6231407815304</v>
+        <v>115.0730103834404</v>
       </c>
       <c r="P13" t="n">
-        <v>206.6231407815304</v>
+        <v>136.0314689805208</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.7285687273037</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="R13" t="n">
-        <v>203.5208941709937</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S13" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T13" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V13" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W13" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X13" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6231407815304</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="C14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="D14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="E14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="F14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="G14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="H14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="I14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="J14" t="n">
-        <v>77.16427416274794</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="K14" t="n">
         <v>7.300693095206476</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>206.6231407815303</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>33.17366544984335</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="R14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,52 +28427,52 @@
         <v>114.0079486021324</v>
       </c>
       <c r="J15" t="n">
-        <v>134.4100680990574</v>
+        <v>52.70307719847251</v>
       </c>
       <c r="K15" t="n">
-        <v>133.4162086752796</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="L15" t="n">
-        <v>131.4736222173154</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>196.1846056758059</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>104.266526701087</v>
       </c>
       <c r="O15" t="n">
-        <v>122.7654716528816</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>199.6629747542164</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.3074627469923</v>
+        <v>199.7879552829729</v>
       </c>
       <c r="R15" t="n">
         <v>164.3676153010279</v>
       </c>
       <c r="S15" t="n">
-        <v>191.6355982166063</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T15" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U15" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V15" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W15" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X15" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y15" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.6231407815303</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28491,10 +28491,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>206.6231407815303</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>202.5979877879693</v>
       </c>
       <c r="G16" t="n">
         <v>168.7027972950638</v>
@@ -28506,52 +28506,52 @@
         <v>164.9137861866083</v>
       </c>
       <c r="J16" t="n">
-        <v>142.1788733713663</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="K16" t="n">
-        <v>136.4349031114983</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="L16" t="n">
-        <v>137.7360938000358</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="M16" t="n">
-        <v>206.6231407815303</v>
+        <v>141.2081410309002</v>
       </c>
       <c r="N16" t="n">
-        <v>205.4757892043948</v>
+        <v>128.167515330418</v>
       </c>
       <c r="O16" t="n">
-        <v>143.4157363145569</v>
+        <v>142.2606209466685</v>
       </c>
       <c r="P16" t="n">
-        <v>176.721612454787</v>
+        <v>146.2074481340442</v>
       </c>
       <c r="Q16" t="n">
         <v>169.7285687273037</v>
       </c>
       <c r="R16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="S16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="T16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="U16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="V16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="W16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="X16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6231407815303</v>
+        <v>206.6231407815307</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I17" t="n">
-        <v>241.1835840230794</v>
+        <v>298.3516110592706</v>
       </c>
       <c r="J17" t="n">
         <v>186.7388807942518</v>
       </c>
       <c r="K17" t="n">
-        <v>274.5149474775124</v>
+        <v>217.3469204413212</v>
       </c>
       <c r="L17" t="n">
         <v>224.163175485646</v>
@@ -28600,25 +28600,25 @@
         <v>208.116492986673</v>
       </c>
       <c r="O17" t="n">
-        <v>290.2601289566838</v>
+        <v>212.951855082707</v>
       </c>
       <c r="P17" t="n">
-        <v>224.2658663946922</v>
+        <v>301.5741402686689</v>
       </c>
       <c r="Q17" t="n">
-        <v>305.0869945511143</v>
+        <v>227.7787206771375</v>
       </c>
       <c r="R17" t="n">
-        <v>237.748993926647</v>
+        <v>315.0572678006238</v>
       </c>
       <c r="S17" t="n">
         <v>227.6197325113245</v>
       </c>
       <c r="T17" t="n">
-        <v>299.7938913303497</v>
+        <v>222.4856174563729</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1509021744371</v>
+        <v>327.4591760484139</v>
       </c>
       <c r="V17" t="n">
         <v>337.8964638257669</v>
@@ -28819,7 +28819,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>241.1835840230794</v>
+        <v>318.4918578970562</v>
       </c>
       <c r="J20" t="n">
         <v>186.7388807942518</v>
@@ -28846,19 +28846,19 @@
         <v>227.7787206771375</v>
       </c>
       <c r="R20" t="n">
-        <v>294.9170209628381</v>
+        <v>237.748993926647</v>
       </c>
       <c r="S20" t="n">
-        <v>304.9280063853012</v>
+        <v>227.6197325113245</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4856174563729</v>
+        <v>296.6703247091789</v>
       </c>
       <c r="U20" t="n">
         <v>327.4591760484139</v>
       </c>
       <c r="V20" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -29062,16 +29062,16 @@
         <v>186.7388807942518</v>
       </c>
       <c r="K23" t="n">
-        <v>217.3469204413212</v>
+        <v>291.5316276941271</v>
       </c>
       <c r="L23" t="n">
-        <v>224.163175485646</v>
+        <v>301.4714493596227</v>
       </c>
       <c r="M23" t="n">
-        <v>284.582448083496</v>
+        <v>210.39774083069</v>
       </c>
       <c r="N23" t="n">
-        <v>208.116492986673</v>
+        <v>285.4247668606497</v>
       </c>
       <c r="O23" t="n">
         <v>212.951855082707</v>
@@ -29086,13 +29086,13 @@
         <v>237.748993926647</v>
       </c>
       <c r="S23" t="n">
-        <v>304.9280063853012</v>
+        <v>227.6197325113245</v>
       </c>
       <c r="T23" t="n">
-        <v>299.7938913303497</v>
+        <v>222.4856174563729</v>
       </c>
       <c r="U23" t="n">
-        <v>327.4591760484139</v>
+        <v>327.4591760484138</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29296,10 +29296,10 @@
         <v>225.0784739055176</v>
       </c>
       <c r="J26" t="n">
-        <v>77.16427416274794</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="K26" t="n">
-        <v>225.0784739055176</v>
+        <v>204.1391455302828</v>
       </c>
       <c r="L26" t="n">
         <v>225.0784739055176</v>
@@ -29308,7 +29308,7 @@
         <v>225.0784739055176</v>
       </c>
       <c r="N26" t="n">
-        <v>225.0784739055176</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>225.0784739055176</v>
@@ -29317,10 +29317,10 @@
         <v>225.0784739055176</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.06115131097191</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="R26" t="n">
-        <v>225.0784739055176</v>
+        <v>195.1647538489544</v>
       </c>
       <c r="S26" t="n">
         <v>225.0784739055176</v>
@@ -29372,13 +29372,13 @@
         <v>125.758822055979</v>
       </c>
       <c r="I27" t="n">
-        <v>114.0079486021324</v>
+        <v>107.4464644498494</v>
       </c>
       <c r="J27" t="n">
-        <v>58.0374238583572</v>
+        <v>52.70307719847251</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>19.08641288293265</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29387,7 +29387,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>104.266526701087</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.177380294162102</v>
+        <v>143.3074627469923</v>
       </c>
       <c r="R27" t="n">
         <v>134.869573263292</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>196.0923587367956</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29457,16 +29457,16 @@
         <v>120.3825889942416</v>
       </c>
       <c r="K28" t="n">
-        <v>136.4349031114983</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="L28" t="n">
-        <v>173.3638215106454</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M28" t="n">
         <v>25.53388076157939</v>
       </c>
       <c r="N28" t="n">
-        <v>128.167515330418</v>
+        <v>16.82963481520679</v>
       </c>
       <c r="O28" t="n">
         <v>37.76473650946507</v>
@@ -29475,10 +29475,10 @@
         <v>58.72319510654556</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.3863316985208</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="R28" t="n">
-        <v>225.0784739055176</v>
+        <v>203.5208941709937</v>
       </c>
       <c r="S28" t="n">
         <v>225.0784739055176</v>
@@ -29548,16 +29548,16 @@
         <v>225.0784739055176</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>225.0784739055176</v>
       </c>
-      <c r="P29" t="n">
-        <v>113.9405388007622</v>
-      </c>
       <c r="Q29" t="n">
-        <v>90.1986067295191</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="R29" t="n">
-        <v>195.1647538489543</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="S29" t="n">
         <v>225.0784739055176</v>
@@ -29609,7 +29609,7 @@
         <v>125.758822055979</v>
       </c>
       <c r="I30" t="n">
-        <v>114.0079486021324</v>
+        <v>107.4464644498493</v>
       </c>
       <c r="J30" t="n">
         <v>52.70307719847244</v>
@@ -29618,10 +29618,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>60.08148485484493</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>21.08638513543833</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29682,40 +29682,40 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7027972950638</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8423783439148</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="I31" t="n">
         <v>164.9137861866082</v>
       </c>
       <c r="J31" t="n">
-        <v>120.3825889942415</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K31" t="n">
-        <v>201.9928585804593</v>
+        <v>67.26494252016343</v>
       </c>
       <c r="L31" t="n">
         <v>32.45248720110844</v>
       </c>
       <c r="M31" t="n">
-        <v>25.53388076157929</v>
+        <v>141.2081410309001</v>
       </c>
       <c r="N31" t="n">
-        <v>225.0784739055176</v>
+        <v>16.8296348152067</v>
       </c>
       <c r="O31" t="n">
         <v>37.76473650946499</v>
       </c>
       <c r="P31" t="n">
-        <v>146.2074481340441</v>
+        <v>58.72319510654549</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.3863316985207</v>
+        <v>195.0281308647837</v>
       </c>
       <c r="R31" t="n">
-        <v>203.5208941709936</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="S31" t="n">
         <v>225.0784739055176</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="C32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="D32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="E32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="F32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="G32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="H32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="I32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="J32" t="n">
-        <v>174.2254254737203</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="K32" t="n">
-        <v>225.0784739055175</v>
+        <v>52.6803492620242</v>
       </c>
       <c r="L32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="M32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="N32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="P32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="R32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="S32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="T32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="U32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="V32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="W32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="X32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="Y32" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>170.9933959911689</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7470167467461</v>
@@ -29849,7 +29849,7 @@
         <v>107.4464644498494</v>
       </c>
       <c r="J33" t="n">
-        <v>134.4100680990574</v>
+        <v>52.70307719847251</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29864,7 +29864,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>122.7654716528816</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -29882,19 +29882,19 @@
         <v>214.9806467549536</v>
       </c>
       <c r="U33" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="V33" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="W33" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.0784739055175</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -29922,7 +29922,7 @@
         <v>168.7027972950638</v>
       </c>
       <c r="H34" t="n">
-        <v>225.0784739055175</v>
+        <v>165.8423783439148</v>
       </c>
       <c r="I34" t="n">
         <v>164.9137861866083</v>
@@ -29934,7 +29934,7 @@
         <v>67.26494252016349</v>
       </c>
       <c r="L34" t="n">
-        <v>32.45248720110853</v>
+        <v>194.9214012451695</v>
       </c>
       <c r="M34" t="n">
         <v>25.53388076157939</v>
@@ -29943,37 +29943,37 @@
         <v>16.82963481520679</v>
       </c>
       <c r="O34" t="n">
-        <v>133.0603539005743</v>
+        <v>37.76473650946507</v>
       </c>
       <c r="P34" t="n">
         <v>58.72319510654556</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.3863316985208</v>
+        <v>169.7285687273037</v>
       </c>
       <c r="R34" t="n">
         <v>203.5208941709937</v>
       </c>
       <c r="S34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="T34" t="n">
         <v>223.7701994768533</v>
       </c>
       <c r="U34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="V34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="W34" t="n">
-        <v>225.0784739055175</v>
+        <v>225.0784739055176</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.0784739055175</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4449789668426</v>
+        <v>124.1214790368959</v>
       </c>
       <c r="L35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="N35" t="n">
-        <v>248.7378771665666</v>
+        <v>88.06814830420316</v>
       </c>
       <c r="O35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P35" t="n">
-        <v>248.7378771665666</v>
+        <v>15.7403034995714</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.19860672951924</v>
+        <v>227.7787206771375</v>
       </c>
       <c r="R35" t="n">
-        <v>248.7378771665666</v>
+        <v>237.748993926647</v>
       </c>
       <c r="S35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4856174563729</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>190.1590751664471</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30101,10 +30101,10 @@
         <v>104.266526701087</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0080187283625</v>
+        <v>122.7654716528816</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>122.3547008802396</v>
       </c>
       <c r="Q36" t="n">
         <v>143.3074627469923</v>
@@ -30122,10 +30122,10 @@
         <v>237.2282281990017</v>
       </c>
       <c r="V36" t="n">
-        <v>248.7378771665666</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30165,28 +30165,28 @@
         <v>164.9137861866083</v>
       </c>
       <c r="J37" t="n">
-        <v>120.3825889942416</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K37" t="n">
-        <v>67.26494252016349</v>
+        <v>136.4349031114983</v>
       </c>
       <c r="L37" t="n">
-        <v>137.7360938000358</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M37" t="n">
-        <v>199.3866933541904</v>
+        <v>25.53388076157939</v>
       </c>
       <c r="N37" t="n">
-        <v>128.167515330418</v>
+        <v>99.97586482821471</v>
       </c>
       <c r="O37" t="n">
-        <v>37.76473650946507</v>
+        <v>143.4157363145569</v>
       </c>
       <c r="P37" t="n">
-        <v>58.72319510654556</v>
+        <v>146.2074481340442</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.3863316985208</v>
+        <v>169.7285687273037</v>
       </c>
       <c r="R37" t="n">
         <v>203.5208941709937</v>
@@ -30195,16 +30195,16 @@
         <v>235.4732887233266</v>
       </c>
       <c r="T37" t="n">
-        <v>248.7378771665666</v>
+        <v>223.7701994768533</v>
       </c>
       <c r="U37" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I38" t="n">
-        <v>241.1835840230794</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="K38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="L38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O38" t="n">
-        <v>54.1066532310256</v>
+        <v>61.924478232044</v>
       </c>
       <c r="P38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Q38" t="n">
-        <v>227.7787206771375</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R38" t="n">
-        <v>248.7378771665666</v>
+        <v>237.748993926647</v>
       </c>
       <c r="S38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T38" t="n">
-        <v>248.7378771665666</v>
+        <v>222.4856174563729</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="39">
@@ -30320,10 +30320,10 @@
         <v>125.758822055979</v>
       </c>
       <c r="I39" t="n">
-        <v>132.3394519287776</v>
+        <v>107.4464644498494</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70307719847251</v>
+        <v>134.4100680990574</v>
       </c>
       <c r="K39" t="n">
         <v>133.4162086752796</v>
@@ -30347,7 +30347,7 @@
         <v>143.3074627469923</v>
       </c>
       <c r="R39" t="n">
-        <v>164.3676153010279</v>
+        <v>134.869573263292</v>
       </c>
       <c r="S39" t="n">
         <v>191.6355982166063</v>
@@ -30362,13 +30362,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>241.7157894606731</v>
       </c>
     </row>
     <row r="40">
@@ -30402,13 +30402,13 @@
         <v>164.9137861866083</v>
       </c>
       <c r="J40" t="n">
-        <v>120.3825889942416</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K40" t="n">
-        <v>67.26494252016349</v>
+        <v>219.5811331245062</v>
       </c>
       <c r="L40" t="n">
-        <v>137.7360938000358</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M40" t="n">
         <v>25.53388076157939</v>
@@ -30417,13 +30417,13 @@
         <v>16.82963481520679</v>
       </c>
       <c r="O40" t="n">
-        <v>226.5619663275604</v>
+        <v>37.76473650946507</v>
       </c>
       <c r="P40" t="n">
         <v>58.72319510654556</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.3863316985208</v>
+        <v>169.7285687273037</v>
       </c>
       <c r="R40" t="n">
         <v>203.5208941709937</v>
@@ -30435,13 +30435,13 @@
         <v>223.7701994768533</v>
       </c>
       <c r="U40" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I41" t="n">
-        <v>241.1835840230794</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="K41" t="n">
-        <v>236.1717877868471</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="L41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="M41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="N41" t="n">
-        <v>248.7378771665666</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>248.7378771665666</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>15.7403034995714</v>
+        <v>95.79221853339966</v>
       </c>
       <c r="Q41" t="n">
-        <v>100.2599953497782</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="S41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="42">
@@ -30545,7 +30545,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>190.1590751664449</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30554,7 +30554,7 @@
         <v>148.7470167467461</v>
       </c>
       <c r="H42" t="n">
-        <v>125.758822055979</v>
+        <v>144.0903253826264</v>
       </c>
       <c r="I42" t="n">
         <v>114.0079486021324</v>
@@ -30563,7 +30563,7 @@
         <v>134.4100680990574</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>133.4162086752796</v>
       </c>
       <c r="L42" t="n">
         <v>122.3102135009452</v>
@@ -30599,7 +30599,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30639,28 +30639,28 @@
         <v>164.9137861866083</v>
       </c>
       <c r="J43" t="n">
-        <v>120.3825889942416</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K43" t="n">
-        <v>219.5811331245018</v>
+        <v>136.4349031114983</v>
       </c>
       <c r="L43" t="n">
-        <v>32.45248720110853</v>
+        <v>137.7360938000358</v>
       </c>
       <c r="M43" t="n">
-        <v>25.53388076157939</v>
+        <v>145.3450626046474</v>
       </c>
       <c r="N43" t="n">
-        <v>16.82963481520679</v>
+        <v>128.167515330418</v>
       </c>
       <c r="O43" t="n">
-        <v>37.76473650946507</v>
+        <v>143.4157363145569</v>
       </c>
       <c r="P43" t="n">
-        <v>58.72319510654556</v>
+        <v>146.2074481340442</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.3863316985208</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R43" t="n">
         <v>203.5208941709937</v>
@@ -30672,13 +30672,13 @@
         <v>223.7701994768533</v>
       </c>
       <c r="U43" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="C44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="D44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="E44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="F44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="G44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="H44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="I44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="J44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="K44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="M44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="N44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="P44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Q44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="R44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="S44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="T44" t="n">
         <v>222.4856174563729</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="W44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>195.0819977243132</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30803,22 +30803,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>122.3102135009452</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>137.2078351284743</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>104.266526701087</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>122.7654716528816</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>114.0292575460277</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>143.3074627469923</v>
+        <v>7.177380294162102</v>
       </c>
       <c r="R45" t="n">
         <v>164.3676153010279</v>
@@ -30836,7 +30836,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>224.8223712252329</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30876,28 +30876,28 @@
         <v>164.9137861866083</v>
       </c>
       <c r="J46" t="n">
-        <v>120.3825889942416</v>
+        <v>142.1788733713663</v>
       </c>
       <c r="K46" t="n">
-        <v>136.4349031114983</v>
+        <v>67.26494252016349</v>
       </c>
       <c r="L46" t="n">
-        <v>137.7360938000358</v>
+        <v>32.45248720110853</v>
       </c>
       <c r="M46" t="n">
-        <v>141.2081410309002</v>
+        <v>25.53388076157939</v>
       </c>
       <c r="N46" t="n">
-        <v>128.167515330418</v>
+        <v>16.82963481520679</v>
       </c>
       <c r="O46" t="n">
-        <v>37.76473650946507</v>
+        <v>81.74918535910592</v>
       </c>
       <c r="P46" t="n">
-        <v>204.3860004573343</v>
+        <v>58.72319510654556</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.3863316985208</v>
+        <v>169.7285687273037</v>
       </c>
       <c r="R46" t="n">
         <v>203.5208941709937</v>
@@ -30906,16 +30906,16 @@
         <v>235.4732887233266</v>
       </c>
       <c r="T46" t="n">
-        <v>248.7378771665666</v>
+        <v>223.7701994768533</v>
       </c>
       <c r="U46" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>248.7378771665666</v>
+        <v>248.7378771665644</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>28.9196579446763</v>
       </c>
       <c r="K11" t="n">
-        <v>71.205027208185</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>46.48129154304582</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="M11" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="N11" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="O11" t="n">
         <v>33.80666237555199</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.45838693257635</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35465,13 +35465,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19.10498925716482</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>34.79556894173069</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.93385712399298</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>9.420588168113305</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,10 +35510,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.25552548050245</v>
+        <v>71.75356751823873</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>14.98754256492443</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29.00622011656264</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35559,19 +35559,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>7.594522475767137</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>41.70935459492247</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>70.18823767003204</v>
+        <v>4.963963117548693</v>
       </c>
       <c r="L13" t="n">
-        <v>68.88704698149458</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,16 +35580,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>63.20740446697345</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="P13" t="n">
-        <v>60.41569264748618</v>
+        <v>77.30827387397528</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>36.89457205422702</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.102246610537074</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>46.48129154304582</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8356266685963749</v>
+        <v>29.72737555144427</v>
       </c>
       <c r="N14" t="n">
         <v>75.28431403229271</v>
       </c>
       <c r="O14" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>17.43336195027195</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>77.30827387397679</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4583869325759</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35702,7 +35702,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>19.10498925716482</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>73.20693210625117</v>
       </c>
       <c r="L15" t="n">
-        <v>9.16340871637018</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,16 +35741,16 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>56.48049253598053</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>14.98754256492443</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.00622011656219</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35787,10 +35787,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>64.94699956930529</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>63.67110556952269</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,31 +35802,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>64.44426741016443</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>70.18823767003241</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>68.88704698149495</v>
       </c>
       <c r="M16" t="n">
-        <v>65.41499975063012</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>30.51416432074284</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.10224661053662</v>
+        <v>3.102246610537074</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>57.16802703619111</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>57.16802703619111</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,25 +35896,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>77.30827387397679</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>77.30827387397679</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>77.30827387397679</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>17.01668021661487</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>77.30827387397679</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.16802703619111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.18470725280599</v>
       </c>
       <c r="U20" t="n">
         <v>77.30827387397679</v>
       </c>
       <c r="V20" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>74.18470725280588</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>77.30827387397663</v>
       </c>
       <c r="M23" t="n">
-        <v>74.18470725280599</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>77.30827387397663</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.30827387397679</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>77.30827387397679</v>
+        <v>77.30827387397663</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>147.9141997427697</v>
       </c>
       <c r="K26" t="n">
-        <v>217.7777808103111</v>
+        <v>196.8384524350763</v>
       </c>
       <c r="L26" t="n">
         <v>271.5597654485634</v>
@@ -36604,7 +36604,7 @@
         <v>305.9655027781831</v>
       </c>
       <c r="N26" t="n">
-        <v>300.3627879378103</v>
+        <v>75.28431403229271</v>
       </c>
       <c r="O26" t="n">
         <v>258.8851362810696</v>
@@ -36613,16 +36613,16 @@
         <v>209.3381704059462</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.862544581452661</v>
+        <v>134.8798671759984</v>
       </c>
       <c r="R26" t="n">
-        <v>29.91372005656321</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.592856449144715</v>
+        <v>2.592856449144743</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>70.75432198231074</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>70.75432198231066</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>18.47543807182752</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>88.6435707940193</v>
       </c>
       <c r="L28" t="n">
-        <v>140.9113343095369</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>55.34990517821391</v>
       </c>
       <c r="R28" t="n">
-        <v>21.55757973452393</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>147.9141997427698</v>
       </c>
       <c r="K29" t="n">
-        <v>217.7777808103113</v>
+        <v>196.8384524350746</v>
       </c>
       <c r="L29" t="n">
         <v>271.5597654485637</v>
@@ -36844,13 +36844,13 @@
         <v>300.3627879378106</v>
       </c>
       <c r="O29" t="n">
-        <v>258.8851362810698</v>
+        <v>33.80666237555221</v>
       </c>
       <c r="P29" t="n">
-        <v>98.200235301191</v>
+        <v>209.3381704059464</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>134.8798671759985</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>70.75432198231066</v>
       </c>
       <c r="O30" t="n">
-        <v>70.75432198231066</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36978,10 +36978,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>56.37567661045381</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>59.23609556160284</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>65.55795546896104</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>96.9109585750997</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>25.29956213748009</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.55757973452399</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>97.06115131097235</v>
+        <v>147.9141997427696</v>
       </c>
       <c r="K32" t="n">
-        <v>217.7777808103111</v>
+        <v>45.37965616681772</v>
       </c>
       <c r="L32" t="n">
-        <v>271.5597654485634</v>
+        <v>168.0263677547415</v>
       </c>
       <c r="M32" t="n">
-        <v>305.965502778183</v>
+        <v>305.9655027781831</v>
       </c>
       <c r="N32" t="n">
         <v>300.3627879378103</v>
       </c>
       <c r="O32" t="n">
-        <v>33.80666237555199</v>
+        <v>258.8851362810695</v>
       </c>
       <c r="P32" t="n">
-        <v>209.3381704059461</v>
+        <v>209.3381704059462</v>
       </c>
       <c r="Q32" t="n">
         <v>134.8798671759983</v>
       </c>
       <c r="R32" t="n">
-        <v>29.91372005656316</v>
+        <v>29.91372005656319</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.592856449144658</v>
+        <v>2.592856449144676</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>12.16995687124052</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>56.89017733957848</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>70.75432198231083</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37190,7 +37190,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.694187771491926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>59.23609556160275</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.468914044061</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>95.2956173911092</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37269,7 +37269,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.937201091349124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.554293143487154</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J35" t="n">
-        <v>171.5736030038186</v>
+        <v>171.5736030038165</v>
       </c>
       <c r="K35" t="n">
-        <v>108.4670203336971</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>295.2191687096124</v>
+        <v>295.2191687096102</v>
       </c>
       <c r="M35" t="n">
-        <v>80.88702887266548</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N35" t="n">
-        <v>40.62138417989357</v>
+        <v>163.3524623364959</v>
       </c>
       <c r="O35" t="n">
-        <v>282.5445395421186</v>
+        <v>282.5445395421164</v>
       </c>
       <c r="P35" t="n">
-        <v>232.9975736669952</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.57312331761221</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.11814465524215</v>
+        <v>21.11814465523999</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>26.25225971019155</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37367,7 +37367,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>18.33150332664744</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>10.2425470754809</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37418,7 +37418,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.088956251164348</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>58.17855232329025</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.14623001300792</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.96767768971326</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J38" t="n">
-        <v>171.5736030038186</v>
+        <v>171.5736030038165</v>
       </c>
       <c r="K38" t="n">
-        <v>131.4970263678359</v>
+        <v>241.437184071358</v>
       </c>
       <c r="L38" t="n">
-        <v>295.2191687096124</v>
+        <v>295.2191687096102</v>
       </c>
       <c r="M38" t="n">
         <v>80.88702887266548</v>
       </c>
       <c r="N38" t="n">
-        <v>324.0221911988593</v>
+        <v>40.62138417989141</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>95.73114060759599</v>
       </c>
       <c r="P38" t="n">
-        <v>232.9975736669952</v>
+        <v>232.997573666993</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>107.4163585145133</v>
       </c>
       <c r="R38" t="n">
-        <v>10.98888323991959</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.11814465524215</v>
+        <v>21.11814465523999</v>
       </c>
       <c r="T38" t="n">
-        <v>26.25225971019371</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>18.33150332664524</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37664,7 +37664,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>18.33150332664745</v>
       </c>
     </row>
     <row r="40">
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>83.14623001300791</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>83.14623001300352</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J41" t="n">
-        <v>61.99899637231483</v>
+        <v>171.5736030038165</v>
       </c>
       <c r="K41" t="n">
-        <v>228.8710946916406</v>
+        <v>241.437184071358</v>
       </c>
       <c r="L41" t="n">
-        <v>295.2191687096124</v>
+        <v>295.2191687096102</v>
       </c>
       <c r="M41" t="n">
-        <v>326.9414083242069</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N41" t="n">
-        <v>40.62138417989357</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>282.5445395421186</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.8866944896438</v>
       </c>
       <c r="R41" t="n">
-        <v>10.98888323991959</v>
+        <v>53.57312331761005</v>
       </c>
       <c r="S41" t="n">
-        <v>21.11814465524215</v>
+        <v>21.11814465523999</v>
       </c>
       <c r="T41" t="n">
-        <v>26.25225971019371</v>
+        <v>26.25225971019155</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37841,7 +37841,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>18.33150332664524</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -37850,7 +37850,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>18.33150332664745</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>83.14623001300352</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>4.136921573747202</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.00930843926071</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.554293143487183</v>
+        <v>7.554293143484994</v>
       </c>
       <c r="J44" t="n">
-        <v>171.5736030038186</v>
+        <v>61.99899637231267</v>
       </c>
       <c r="K44" t="n">
-        <v>241.4371840713602</v>
+        <v>31.39095672524319</v>
       </c>
       <c r="L44" t="n">
-        <v>46.48129154304582</v>
+        <v>220.7982535256224</v>
       </c>
       <c r="M44" t="n">
-        <v>326.9414083242069</v>
+        <v>326.9414083242136</v>
       </c>
       <c r="N44" t="n">
-        <v>324.0221911988593</v>
+        <v>324.0221911988572</v>
       </c>
       <c r="O44" t="n">
-        <v>33.80666237555199</v>
+        <v>35.78602208385745</v>
       </c>
       <c r="P44" t="n">
-        <v>89.6730613802215</v>
+        <v>232.997573666993</v>
       </c>
       <c r="Q44" t="n">
-        <v>20.95915648942914</v>
+        <v>20.95915648942695</v>
       </c>
       <c r="R44" t="n">
-        <v>10.98888323991962</v>
+        <v>10.98888323991743</v>
       </c>
       <c r="S44" t="n">
-        <v>21.11814465524218</v>
+        <v>21.11814465523999</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38069,7 +38069,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>18.33150332664744</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>18.33150332664521</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.14623001300792</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>58.17855232329017</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>24.96767768971329</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
